--- a/seasons_excel/Formel1_2020_WM_1.xlsx
+++ b/seasons_excel/Formel1_2020_WM_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timkeller/git_repos/TK5/F1-virtualWC/seasons_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC56D67-7BB8-2B44-8BF0-24D63D06E8E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A22B67-F0F6-E04D-9C08-4B6C41108C6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34760" yWindow="1200" windowWidth="28800" windowHeight="17540" xr2:uid="{15EF9A06-B4D9-F442-81AB-3E6205016DF9}"/>
   </bookViews>
@@ -527,10 +527,10 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>Paul</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Andi </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Paul</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Verstappen</c:v>
@@ -539,19 +539,19 @@
                   <c:v>Hamilton</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Lorenz </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Räikkönen</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Vettel</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>Ocon</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Perez</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ocon</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Räikkönen</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Lorenz </c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Leclerc</c:v>
@@ -596,37 +596,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12</c:v>
@@ -1036,7 +1036,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Andi </c:v>
+                  <c:v>Paul</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1072,19 +1072,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,7 +1108,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Paul</c:v>
+                  <c:v>Andi </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1141,19 +1144,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,6 +1230,9 @@
                 <c:pt idx="4">
                   <c:v>15</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1243,7 +1252,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ocon</c:v>
+                  <c:v>Vettel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1285,19 +1294,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1372,6 +1384,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1740,7 +1755,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Andi </c:v>
+                  <c:v>Paul</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1762,19 +1777,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1794,7 +1812,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Paul</c:v>
+                  <c:v>Andi </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1816,19 +1834,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2206,10 +2227,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>Paul</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Andi </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Paul</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2221,10 +2242,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2403,10 +2424,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>Paul</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Andi </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Paul</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2418,10 +2439,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2783,67 +2804,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>93</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2959,67 +2980,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>90</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3320,58 +3341,58 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3487,67 +3508,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3663,67 +3684,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3841,67 +3862,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4019,67 +4040,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4197,67 +4218,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4384,58 +4405,58 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4562,58 +4583,58 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10275,8 +10296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F030A18C-8E60-B84C-94A5-3D61DA529893}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10377,51 +10398,57 @@
       </c>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
+      <c r="A4" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="B4">
         <f>SUM(C4:X4)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E4">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>25</v>
+      <c r="H4">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="22" t="s">
-        <v>66</v>
+      <c r="A5" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
         <f>SUM(C5:X5)</f>
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -10447,6 +10474,9 @@
       <c r="G6">
         <v>18</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
@@ -10454,7 +10484,7 @@
       </c>
       <c r="B7">
         <f>SUM(C7:X7)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -10471,6 +10501,9 @@
       <c r="G7">
         <v>15</v>
       </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
       <c r="AD7">
         <v>1</v>
       </c>
@@ -10482,27 +10515,30 @@
       </c>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="2" t="s">
-        <v>59</v>
+      <c r="A8" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="B8">
         <f>SUM(C8:X8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
       </c>
       <c r="AE8" s="1" t="s">
         <v>61</v>
@@ -10512,27 +10548,30 @@
       </c>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="9" t="s">
-        <v>12</v>
+      <c r="A9" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="B9">
         <f>SUM(C9:X9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
         <v>6</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>12</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
       </c>
       <c r="AD9">
         <v>2</v>
@@ -10545,27 +10584,30 @@
       </c>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="4" t="s">
-        <v>63</v>
+      <c r="A10" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B10">
         <f>SUM(C10:X10)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
         <v>12</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
+      <c r="H10">
+        <v>4</v>
       </c>
       <c r="AE10" s="2" t="s">
         <v>59</v>
@@ -10575,27 +10617,30 @@
       </c>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="8" t="s">
-        <v>13</v>
+      <c r="A11" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B11">
         <f>SUM(C11:X11)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
       <c r="F11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
       </c>
       <c r="AD11">
         <v>3</v>
@@ -10608,27 +10653,30 @@
       </c>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="8" t="s">
-        <v>3</v>
+      <c r="A12" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
         <f>SUM(C12:X12)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
       </c>
       <c r="AE12" s="6" t="s">
         <v>15</v>
@@ -10643,7 +10691,7 @@
       </c>
       <c r="B13">
         <f>SUM(C13:X13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -10659,6 +10707,9 @@
       </c>
       <c r="G13">
         <v>8</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
       </c>
       <c r="AD13">
         <v>4</v>
@@ -10676,7 +10727,7 @@
       </c>
       <c r="B14">
         <f>SUM(C14:X14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -10692,6 +10743,9 @@
       </c>
       <c r="G14">
         <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
       </c>
       <c r="AE14" s="5" t="s">
         <v>10</v>
@@ -10723,6 +10777,9 @@
       <c r="G15">
         <v>0</v>
       </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="AD15">
         <v>5</v>
       </c>
@@ -10756,6 +10813,9 @@
       <c r="G16">
         <v>0</v>
       </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
       <c r="AE16" s="9" t="s">
         <v>12</v>
       </c>
@@ -10786,6 +10846,9 @@
       <c r="G17">
         <v>0</v>
       </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
       <c r="AD17">
         <v>6</v>
       </c>
@@ -10819,6 +10882,9 @@
       <c r="G18">
         <v>2</v>
       </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
       <c r="AE18" s="3" t="s">
         <v>60</v>
       </c>
@@ -10849,6 +10915,9 @@
       <c r="G19">
         <v>0</v>
       </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
       <c r="AD19">
         <v>7</v>
       </c>
@@ -10882,6 +10951,9 @@
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
       <c r="AE20" s="4" t="s">
         <v>9</v>
       </c>
@@ -10912,6 +10984,9 @@
       <c r="G21">
         <v>0</v>
       </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
       <c r="AD21">
         <v>8</v>
       </c>
@@ -10945,6 +11020,9 @@
       <c r="G22">
         <v>0</v>
       </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
       <c r="AE22" s="8" t="s">
         <v>14</v>
       </c>
@@ -10973,6 +11051,9 @@
         <v>0</v>
       </c>
       <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>0</v>
       </c>
       <c r="AD23">
@@ -12265,87 +12346,87 @@
       </c>
       <c r="B2">
         <f>Fahrerwertung!C4</f>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <f>SUM(Fahrerwertung!C4:D4)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <f>SUM(Fahrerwertung!C4:F4)</f>
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <f>SUM(Fahrerwertung!C4:H4)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F2">
         <f>SUM(Fahrerwertung!C4:I4)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="G2">
         <f>SUM(Fahrerwertung!C4:J4)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="H2">
         <f>SUM(Fahrerwertung!C4:K4)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="I2">
         <f>SUM(Fahrerwertung!C4:L4)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="J2">
         <f>SUM(Fahrerwertung!C4:M4)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="K2">
         <f>SUM(Fahrerwertung!C4:N4)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="L2">
         <f>SUM(Fahrerwertung!C4:N4)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="M2">
         <f>SUM(Fahrerwertung!C4:O4)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="N2">
         <f>SUM(Fahrerwertung!C4:P4)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="O2">
         <f>SUM(Fahrerwertung!C4:Q4)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="P2">
         <f>SUM(Fahrerwertung!C4:R4)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="Q2">
         <f>SUM(Fahrerwertung!C4:S4)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="R2">
         <f>SUM(Fahrerwertung!C4:T4)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="S2">
         <f>SUM(Fahrerwertung!C4:U4)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="T2">
         <f>SUM(Fahrerwertung!C4:V4)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="U2">
         <f>SUM(Fahrerwertung!C4:W4)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="V2">
         <f>SUM(Fahrerwertung!C4:X4)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -12354,87 +12435,87 @@
       </c>
       <c r="B3">
         <f>Fahrerwertung!C5</f>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <f>SUM(Fahrerwertung!C5:D5)</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <f>SUM(Fahrerwertung!C5:F5)</f>
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E3">
         <f>SUM(Fahrerwertung!C5:H5)</f>
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <f>SUM(Fahrerwertung!C5:I5)</f>
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="G3">
         <f>SUM(Fahrerwertung!C5:J5)</f>
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="H3">
         <f>SUM(Fahrerwertung!C5:K5)</f>
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="I3">
         <f>SUM(Fahrerwertung!C5:L5)</f>
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="J3">
         <f>SUM(Fahrerwertung!C5:M5)</f>
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="K3">
         <f>SUM(Fahrerwertung!C5:N5)</f>
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="L3">
         <f>SUM(Fahrerwertung!C5:N5)</f>
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="M3">
         <f>SUM(Fahrerwertung!C5:O5)</f>
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="N3">
         <f>SUM(Fahrerwertung!C5:P5)</f>
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="O3">
         <f>SUM(Fahrerwertung!C5:Q5)</f>
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="P3">
         <f>SUM(Fahrerwertung!C5:R5)</f>
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="Q3">
         <f>SUM(Fahrerwertung!C5:S5)</f>
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="R3">
         <f>SUM(Fahrerwertung!C5:T5)</f>
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="S3">
         <f>SUM(Fahrerwertung!C5:U5)</f>
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="T3">
         <f>SUM(Fahrerwertung!C5:V5)</f>
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="U3">
         <f>SUM(Fahrerwertung!C5:W5)</f>
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="V3">
         <f>SUM(Fahrerwertung!C5:X5)</f>
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -12544,75 +12625,75 @@
       </c>
       <c r="E5">
         <f>SUM(Fahrerwertung!C7:H7)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <f>SUM(Fahrerwertung!C7:I7)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G5">
         <f>SUM(Fahrerwertung!C7:J7)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <f>SUM(Fahrerwertung!C7:K7)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I5">
         <f>SUM(Fahrerwertung!C7:L7)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J5">
         <f>SUM(Fahrerwertung!C7:M7)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K5">
         <f>SUM(Fahrerwertung!C7:N7)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L5">
         <f>SUM(Fahrerwertung!C7:N7)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M5">
         <f>SUM(Fahrerwertung!C7:O7)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <f>SUM(Fahrerwertung!C7:P7)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O5">
         <f>SUM(Fahrerwertung!C7:Q7)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P5">
         <f>SUM(Fahrerwertung!C7:R7)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q5">
         <f>SUM(Fahrerwertung!C7:S7)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R5">
         <f>SUM(Fahrerwertung!C7:T7)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="S5">
         <f>SUM(Fahrerwertung!C7:U7)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="T5">
         <f>SUM(Fahrerwertung!C7:V7)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="U5">
         <f>SUM(Fahrerwertung!C7:W7)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="V5">
         <f>SUM(Fahrerwertung!C7:X7)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -12621,87 +12702,87 @@
       </c>
       <c r="B6">
         <f>Fahrerwertung!C8</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>SUM(Fahrerwertung!C8:D8)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f>SUM(Fahrerwertung!C8:F8)</f>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <f>SUM(Fahrerwertung!C8:H8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F6">
         <f>SUM(Fahrerwertung!C8:I8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <f>SUM(Fahrerwertung!C8:J8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <f>SUM(Fahrerwertung!C8:K8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I6">
         <f>SUM(Fahrerwertung!C8:L8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <f>SUM(Fahrerwertung!C8:M8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <f>SUM(Fahrerwertung!C8:N8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L6">
         <f>SUM(Fahrerwertung!C8:N8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M6">
         <f>SUM(Fahrerwertung!C8:O8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <f>SUM(Fahrerwertung!C8:P8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="O6">
         <f>SUM(Fahrerwertung!C8:Q8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P6">
         <f>SUM(Fahrerwertung!C8:R8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="Q6">
         <f>SUM(Fahrerwertung!C8:S8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="R6">
         <f>SUM(Fahrerwertung!C8:T8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="S6">
         <f>SUM(Fahrerwertung!C8:U8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="T6">
         <f>SUM(Fahrerwertung!C8:V8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="U6">
         <f>SUM(Fahrerwertung!C8:W8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="V6">
         <f>SUM(Fahrerwertung!C8:X8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -12710,87 +12791,87 @@
       </c>
       <c r="B7">
         <f>Fahrerwertung!C9</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f>SUM(Fahrerwertung!C9:D9)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <f>SUM(Fahrerwertung!C9:F9)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <f>SUM(Fahrerwertung!C9:H9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F7">
         <f>SUM(Fahrerwertung!C9:I9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <f>SUM(Fahrerwertung!C9:J9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H7">
         <f>SUM(Fahrerwertung!C9:K9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I7">
         <f>SUM(Fahrerwertung!C9:L9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <f>SUM(Fahrerwertung!C9:M9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <f>SUM(Fahrerwertung!C9:N9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L7">
         <f>SUM(Fahrerwertung!C9:N9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M7">
         <f>SUM(Fahrerwertung!C9:O9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <f>SUM(Fahrerwertung!C9:P9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O7">
         <f>SUM(Fahrerwertung!C9:Q9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P7">
         <f>SUM(Fahrerwertung!C9:R9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q7">
         <f>SUM(Fahrerwertung!C9:S9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="R7">
         <f>SUM(Fahrerwertung!C9:T9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="S7">
         <f>SUM(Fahrerwertung!C9:U9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="T7">
         <f>SUM(Fahrerwertung!C9:V9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="U7">
         <f>SUM(Fahrerwertung!C9:W9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="V7">
         <f>SUM(Fahrerwertung!C9:X9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -12799,87 +12880,87 @@
       </c>
       <c r="B8">
         <f>Fahrerwertung!C10</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <f>SUM(Fahrerwertung!C10:D10)</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <f>SUM(Fahrerwertung!C10:F10)</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <f>SUM(Fahrerwertung!C10:H10)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F8">
         <f>SUM(Fahrerwertung!C10:I10)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <f>SUM(Fahrerwertung!C10:J10)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <f>SUM(Fahrerwertung!C10:K10)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I8">
         <f>SUM(Fahrerwertung!C10:L10)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <f>SUM(Fahrerwertung!C10:M10)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <f>SUM(Fahrerwertung!C10:N10)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="L8">
         <f>SUM(Fahrerwertung!C10:N10)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M8">
         <f>SUM(Fahrerwertung!C10:O10)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <f>SUM(Fahrerwertung!C10:P10)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O8">
         <f>SUM(Fahrerwertung!C10:Q10)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="P8">
         <f>SUM(Fahrerwertung!C10:R10)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q8">
         <f>SUM(Fahrerwertung!C10:S10)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="R8">
         <f>SUM(Fahrerwertung!C10:T10)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="S8">
         <f>SUM(Fahrerwertung!C10:U10)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="T8">
         <f>SUM(Fahrerwertung!C10:V10)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="U8">
         <f>SUM(Fahrerwertung!C10:W10)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="V8">
         <f>SUM(Fahrerwertung!C10:X10)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -12888,87 +12969,87 @@
       </c>
       <c r="B9">
         <f>Fahrerwertung!C11</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <f>SUM(Fahrerwertung!C11:D11)</f>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <f>SUM(Fahrerwertung!C11:F11)</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <f>SUM(Fahrerwertung!C11:H11)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F9">
         <f>SUM(Fahrerwertung!C11:I11)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <f>SUM(Fahrerwertung!C11:J11)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <f>SUM(Fahrerwertung!C11:K11)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I9">
         <f>SUM(Fahrerwertung!C11:L11)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <f>SUM(Fahrerwertung!C11:M11)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <f>SUM(Fahrerwertung!C11:N11)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L9">
         <f>SUM(Fahrerwertung!C11:N11)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M9">
         <f>SUM(Fahrerwertung!C11:O11)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <f>SUM(Fahrerwertung!C11:P11)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O9">
         <f>SUM(Fahrerwertung!C11:Q11)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P9">
         <f>SUM(Fahrerwertung!C11:R11)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q9">
         <f>SUM(Fahrerwertung!C11:S11)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R9">
         <f>SUM(Fahrerwertung!C11:T11)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S9">
         <f>SUM(Fahrerwertung!C11:U11)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T9">
         <f>SUM(Fahrerwertung!C11:V11)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="U9">
         <f>SUM(Fahrerwertung!C11:W11)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V9">
         <f>SUM(Fahrerwertung!C11:X11)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -12977,87 +13058,87 @@
       </c>
       <c r="B10">
         <f>Fahrerwertung!C12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <f>SUM(Fahrerwertung!C12:D12)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <f>SUM(Fahrerwertung!C12:F12)</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <f>SUM(Fahrerwertung!C12:H12)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F10">
         <f>SUM(Fahrerwertung!C12:I12)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <f>SUM(Fahrerwertung!C12:J12)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <f>SUM(Fahrerwertung!C12:K12)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I10">
         <f>SUM(Fahrerwertung!C12:L12)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J10">
         <f>SUM(Fahrerwertung!C12:M12)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K10">
         <f>SUM(Fahrerwertung!C12:N12)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L10">
         <f>SUM(Fahrerwertung!C12:N12)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M10">
         <f>SUM(Fahrerwertung!C12:O12)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <f>SUM(Fahrerwertung!C12:P12)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O10">
         <f>SUM(Fahrerwertung!C12:Q12)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P10">
         <f>SUM(Fahrerwertung!C12:R12)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q10">
         <f>SUM(Fahrerwertung!C12:S12)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R10">
         <f>SUM(Fahrerwertung!C12:T12)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S10">
         <f>SUM(Fahrerwertung!C12:U12)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T10">
         <f>SUM(Fahrerwertung!C12:V12)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U10">
         <f>SUM(Fahrerwertung!C12:W12)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V10">
         <f>SUM(Fahrerwertung!C12:X12)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -13078,75 +13159,75 @@
       </c>
       <c r="E11">
         <f>SUM(Fahrerwertung!C13:H13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <f>SUM(Fahrerwertung!C13:I13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G11">
         <f>SUM(Fahrerwertung!C13:J13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H11">
         <f>SUM(Fahrerwertung!C13:K13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I11">
         <f>SUM(Fahrerwertung!C13:L13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J11">
         <f>SUM(Fahrerwertung!C13:M13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K11">
         <f>SUM(Fahrerwertung!C13:N13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L11">
         <f>SUM(Fahrerwertung!C13:N13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M11">
         <f>SUM(Fahrerwertung!C13:O13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <f>SUM(Fahrerwertung!C13:P13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O11">
         <f>SUM(Fahrerwertung!C13:Q13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P11">
         <f>SUM(Fahrerwertung!C13:R13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q11">
         <f>SUM(Fahrerwertung!C13:S13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R11">
         <f>SUM(Fahrerwertung!C13:T13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="S11">
         <f>SUM(Fahrerwertung!C13:U13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T11">
         <f>SUM(Fahrerwertung!C13:V13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U11">
         <f>SUM(Fahrerwertung!C13:W13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V11">
         <f>SUM(Fahrerwertung!C13:X13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -13167,75 +13248,75 @@
       </c>
       <c r="E12">
         <f>SUM(Fahrerwertung!C14:H14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F12">
         <f>SUM(Fahrerwertung!C14:I14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G12">
         <f>SUM(Fahrerwertung!C14:J14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H12">
         <f>SUM(Fahrerwertung!C14:K14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I12">
         <f>SUM(Fahrerwertung!C14:L14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J12">
         <f>SUM(Fahrerwertung!C14:M14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K12">
         <f>SUM(Fahrerwertung!C14:N14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L12">
         <f>SUM(Fahrerwertung!C14:N14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M12">
         <f>SUM(Fahrerwertung!C14:O14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N12">
         <f>SUM(Fahrerwertung!C14:P14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="O12">
         <f>SUM(Fahrerwertung!C14:Q14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P12">
         <f>SUM(Fahrerwertung!C14:R14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q12">
         <f>SUM(Fahrerwertung!C14:S14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R12">
         <f>SUM(Fahrerwertung!C14:T14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="S12">
         <f>SUM(Fahrerwertung!C14:U14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="T12">
         <f>SUM(Fahrerwertung!C14:V14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="U12">
         <f>SUM(Fahrerwertung!C14:W14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="V12">
         <f>SUM(Fahrerwertung!C14:X14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:22">

--- a/seasons_excel/Formel1_2020_WM_1.xlsx
+++ b/seasons_excel/Formel1_2020_WM_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timkeller/git_repos/TK5/F1-virtualWC/seasons_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A22B67-F0F6-E04D-9C08-4B6C41108C6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD396F05-F856-4E41-A4C8-D320D95F6997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34760" yWindow="1200" windowWidth="28800" windowHeight="17540" xr2:uid="{15EF9A06-B4D9-F442-81AB-3E6205016DF9}"/>
   </bookViews>
@@ -539,10 +539,10 @@
                   <c:v>Hamilton</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Räikkönen</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Lorenz </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Räikkönen</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Vettel</c:v>
@@ -554,37 +554,37 @@
                   <c:v>Perez</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Norris</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Leclerc</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Albon </c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Ricciardo</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Norris</c:v>
+                  <c:v>Albon </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Kyvat</c:v>
+                  <c:v>Russell</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Magnussen </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Russell</c:v>
+                  <c:v>Grosjean</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Grosjean</c:v>
+                  <c:v>Kyvat</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Sainz</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>Latifi</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>Tim </c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Latifi</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -596,22 +596,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>42</c:v>
@@ -620,37 +620,37 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -1089,6 +1089,12 @@
                 <c:pt idx="5">
                   <c:v>26</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1161,6 +1167,12 @@
                 <c:pt idx="5">
                   <c:v>18</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1231,6 +1243,12 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -1309,6 +1327,12 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1330,7 +1354,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Latifi</c:v>
+                  <c:v>Tim </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1387,6 +1411,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1794,6 +1824,12 @@
                 <c:pt idx="5">
                   <c:v>26</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1849,6 +1885,12 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -2242,10 +2284,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2439,10 +2481,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2813,58 +2855,58 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>116</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2989,58 +3031,58 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>111</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3165,58 +3207,58 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,58 +3383,58 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>60</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>60</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>60</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>60</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3508,67 +3550,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3684,67 +3726,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3874,7 +3916,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>42</c:v>
@@ -4052,7 +4094,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>39</c:v>
@@ -4227,58 +4269,58 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4396,67 +4438,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4574,67 +4616,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4761,58 +4803,58 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4931,67 +4973,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5113,64 +5155,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5298,58 +5340,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5471,64 +5513,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5653,61 +5695,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5835,58 +5877,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6013,58 +6055,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10296,8 +10338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F030A18C-8E60-B84C-94A5-3D61DA529893}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10307,6 +10349,7 @@
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -10346,13 +10389,13 @@
         <v>68</v>
       </c>
       <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -10403,7 +10446,7 @@
       </c>
       <c r="B4">
         <f>SUM(C4:X4)</f>
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="C4">
         <v>19</v>
@@ -10421,6 +10464,12 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>26</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
+      <c r="J4">
         <v>26</v>
       </c>
     </row>
@@ -10430,7 +10479,7 @@
       </c>
       <c r="B5">
         <f>SUM(C5:X5)</f>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -10448,6 +10497,12 @@
         <v>25</v>
       </c>
       <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
         <v>18</v>
       </c>
     </row>
@@ -10457,7 +10512,7 @@
       </c>
       <c r="B6">
         <f>SUM(C6:X6)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -10475,6 +10530,12 @@
         <v>18</v>
       </c>
       <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
     </row>
@@ -10484,7 +10545,7 @@
       </c>
       <c r="B7">
         <f>SUM(C7:X7)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -10502,6 +10563,12 @@
         <v>15</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
         <v>10</v>
       </c>
       <c r="AD7">
@@ -10516,29 +10583,35 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <f>SUM(C8:X8)</f>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="I8">
         <v>18</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="J8">
         <v>12</v>
-      </c>
-      <c r="H8">
-        <v>15</v>
       </c>
       <c r="AE8" s="1" t="s">
         <v>61</v>
@@ -10549,29 +10622,35 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="8" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <f>SUM(C9:X9)</f>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>12</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
       <c r="H9">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>15</v>
       </c>
       <c r="AD9">
         <v>2</v>
@@ -10607,6 +10686,12 @@
         <v>10</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>4</v>
       </c>
       <c r="AE10" s="2" t="s">
@@ -10640,6 +10725,12 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>8</v>
       </c>
       <c r="AD11">
@@ -10658,7 +10749,7 @@
       </c>
       <c r="B12">
         <f>SUM(C12:X12)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -10676,6 +10767,12 @@
         <v>4</v>
       </c>
       <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>1</v>
       </c>
       <c r="AE12" s="6" t="s">
@@ -10686,30 +10783,36 @@
       </c>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
+      <c r="A13" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B13">
         <f>SUM(C13:X13)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
       </c>
       <c r="AD13">
         <v>4</v>
@@ -10722,30 +10825,36 @@
       </c>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="23" t="s">
-        <v>15</v>
+      <c r="A14" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B14">
         <f>SUM(C14:X14)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
         <v>8</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
+      <c r="I14">
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
+      <c r="J14">
+        <v>2</v>
       </c>
       <c r="AE14" s="5" t="s">
         <v>10</v>
@@ -10760,7 +10869,7 @@
       </c>
       <c r="B15">
         <f>SUM(C15:X15)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -10778,6 +10887,12 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
         <v>0</v>
       </c>
       <c r="AD15">
@@ -10791,21 +10906,21 @@
       </c>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="3" t="s">
-        <v>65</v>
+      <c r="A16" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="B16">
         <f>SUM(C16:X16)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -10816,6 +10931,12 @@
       <c r="H16">
         <v>0</v>
       </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
       <c r="AE16" s="9" t="s">
         <v>12</v>
       </c>
@@ -10824,29 +10945,35 @@
       </c>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="22" t="s">
-        <v>18</v>
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
         <f>SUM(C17:X17)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
+      <c r="J17">
         <v>0</v>
       </c>
       <c r="AD17">
@@ -10865,7 +10992,7 @@
       </c>
       <c r="B18">
         <f>SUM(C18:X18)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -10883,6 +11010,12 @@
         <v>2</v>
       </c>
       <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>0</v>
       </c>
       <c r="AE18" s="3" t="s">
@@ -10893,18 +11026,18 @@
       </c>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" t="s">
-        <v>17</v>
+      <c r="A19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B19">
         <f>SUM(C19:X19)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -10913,11 +11046,17 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
       <c r="AD19">
         <v>7</v>
       </c>
@@ -10929,12 +11068,12 @@
       </c>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="5" t="s">
-        <v>10</v>
+      <c r="A20" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="B20">
         <f>SUM(C20:X20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -10946,12 +11085,18 @@
         <v>0</v>
       </c>
       <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
         <v>0</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
       <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>0</v>
       </c>
       <c r="AE20" s="4" t="s">
@@ -10967,7 +11112,7 @@
       </c>
       <c r="B21">
         <f>SUM(C21:X21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -10985,6 +11130,12 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>0</v>
       </c>
       <c r="AD21">
@@ -10998,12 +11149,12 @@
       </c>
     </row>
     <row r="22" spans="1:32">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
+      <c r="A22" t="s">
+        <v>62</v>
       </c>
       <c r="B22">
         <f>SUM(C22:X22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -11021,6 +11172,12 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <v>0</v>
       </c>
       <c r="AE22" s="8" t="s">
@@ -11031,8 +11188,8 @@
       </c>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" t="s">
-        <v>62</v>
+      <c r="A23" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B23">
         <f>SUM(C23:X23)</f>
@@ -11054,6 +11211,12 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>0</v>
       </c>
       <c r="AD23">
@@ -12357,76 +12520,76 @@
         <v>90</v>
       </c>
       <c r="E2">
-        <f>SUM(Fahrerwertung!C4:H4)</f>
-        <v>116</v>
+        <f>SUM(Fahrerwertung!C4:X4)</f>
+        <v>168</v>
       </c>
       <c r="F2">
         <f>SUM(Fahrerwertung!C4:I4)</f>
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="G2">
         <f>SUM(Fahrerwertung!C4:J4)</f>
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="H2">
         <f>SUM(Fahrerwertung!C4:K4)</f>
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="I2">
         <f>SUM(Fahrerwertung!C4:L4)</f>
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="J2">
         <f>SUM(Fahrerwertung!C4:M4)</f>
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="K2">
         <f>SUM(Fahrerwertung!C4:N4)</f>
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="L2">
         <f>SUM(Fahrerwertung!C4:N4)</f>
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="M2">
         <f>SUM(Fahrerwertung!C4:O4)</f>
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="N2">
         <f>SUM(Fahrerwertung!C4:P4)</f>
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="O2">
         <f>SUM(Fahrerwertung!C4:Q4)</f>
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="P2">
         <f>SUM(Fahrerwertung!C4:R4)</f>
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <f>SUM(Fahrerwertung!C4:S4)</f>
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="R2">
         <f>SUM(Fahrerwertung!C4:T4)</f>
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="S2">
         <f>SUM(Fahrerwertung!C4:U4)</f>
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="T2">
         <f>SUM(Fahrerwertung!C4:V4)</f>
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="U2">
         <f>SUM(Fahrerwertung!C4:W4)</f>
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="V2">
         <f>SUM(Fahrerwertung!C4:X4)</f>
-        <v>116</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -12446,76 +12609,76 @@
         <v>68</v>
       </c>
       <c r="E3">
-        <f>SUM(Fahrerwertung!C5:H5)</f>
-        <v>111</v>
+        <f>SUM(Fahrerwertung!C5:X5)</f>
+        <v>133</v>
       </c>
       <c r="F3">
         <f>SUM(Fahrerwertung!C5:I5)</f>
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G3">
         <f>SUM(Fahrerwertung!C5:J5)</f>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="H3">
         <f>SUM(Fahrerwertung!C5:K5)</f>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="I3">
         <f>SUM(Fahrerwertung!C5:L5)</f>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="J3">
         <f>SUM(Fahrerwertung!C5:M5)</f>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="K3">
         <f>SUM(Fahrerwertung!C5:N5)</f>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="L3">
         <f>SUM(Fahrerwertung!C5:N5)</f>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="M3">
         <f>SUM(Fahrerwertung!C5:O5)</f>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="N3">
         <f>SUM(Fahrerwertung!C5:P5)</f>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="O3">
         <f>SUM(Fahrerwertung!C5:Q5)</f>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="P3">
         <f>SUM(Fahrerwertung!C5:R5)</f>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="Q3">
         <f>SUM(Fahrerwertung!C5:S5)</f>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="R3">
         <f>SUM(Fahrerwertung!C5:T5)</f>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="S3">
         <f>SUM(Fahrerwertung!C5:U5)</f>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="T3">
         <f>SUM(Fahrerwertung!C5:V5)</f>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="U3">
         <f>SUM(Fahrerwertung!C5:W5)</f>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="V3">
         <f>SUM(Fahrerwertung!C5:X5)</f>
-        <v>111</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -12535,76 +12698,76 @@
         <v>45</v>
       </c>
       <c r="E4">
-        <f>SUM(Fahrerwertung!C6:H6)</f>
-        <v>63</v>
+        <f>SUM(Fahrerwertung!C6:X6)</f>
+        <v>78</v>
       </c>
       <c r="F4">
         <f>SUM(Fahrerwertung!C6:I6)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G4">
         <f>SUM(Fahrerwertung!C6:J6)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="H4">
         <f>SUM(Fahrerwertung!C6:K6)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <f>SUM(Fahrerwertung!C6:L6)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="J4">
         <f>SUM(Fahrerwertung!C6:M6)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="K4">
         <f>SUM(Fahrerwertung!C6:N6)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="L4">
         <f>SUM(Fahrerwertung!C6:N6)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="M4">
         <f>SUM(Fahrerwertung!C6:O6)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="N4">
         <f>SUM(Fahrerwertung!C6:P6)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="O4">
         <f>SUM(Fahrerwertung!C6:Q6)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="P4">
         <f>SUM(Fahrerwertung!C6:R6)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="Q4">
         <f>SUM(Fahrerwertung!C6:S6)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="R4">
         <f>SUM(Fahrerwertung!C6:T6)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="S4">
         <f>SUM(Fahrerwertung!C6:U6)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="T4">
         <f>SUM(Fahrerwertung!C6:V6)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="U4">
         <f>SUM(Fahrerwertung!C6:W6)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="V4">
         <f>SUM(Fahrerwertung!C6:X6)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -12624,76 +12787,76 @@
         <v>35</v>
       </c>
       <c r="E5">
-        <f>SUM(Fahrerwertung!C7:H7)</f>
-        <v>60</v>
+        <f>SUM(Fahrerwertung!C7:X7)</f>
+        <v>66</v>
       </c>
       <c r="F5">
         <f>SUM(Fahrerwertung!C7:I7)</f>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G5">
         <f>SUM(Fahrerwertung!C7:J7)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H5">
         <f>SUM(Fahrerwertung!C7:K7)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I5">
         <f>SUM(Fahrerwertung!C7:L7)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J5">
         <f>SUM(Fahrerwertung!C7:M7)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K5">
         <f>SUM(Fahrerwertung!C7:N7)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L5">
         <f>SUM(Fahrerwertung!C7:N7)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M5">
         <f>SUM(Fahrerwertung!C7:O7)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="N5">
         <f>SUM(Fahrerwertung!C7:P7)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O5">
         <f>SUM(Fahrerwertung!C7:Q7)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P5">
         <f>SUM(Fahrerwertung!C7:R7)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Q5">
         <f>SUM(Fahrerwertung!C7:S7)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="R5">
         <f>SUM(Fahrerwertung!C7:T7)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="S5">
         <f>SUM(Fahrerwertung!C7:U7)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T5">
         <f>SUM(Fahrerwertung!C7:V7)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="U5">
         <f>SUM(Fahrerwertung!C7:W7)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="V5">
         <f>SUM(Fahrerwertung!C7:X7)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -12702,87 +12865,87 @@
       </c>
       <c r="B6">
         <f>Fahrerwertung!C8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f>SUM(Fahrerwertung!C8:D8)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <f>SUM(Fahrerwertung!C8:F8)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <f>SUM(Fahrerwertung!C8:H8)</f>
-        <v>45</v>
+        <f>SUM(Fahrerwertung!C8:X8)</f>
+        <v>61</v>
       </c>
       <c r="F6">
         <f>SUM(Fahrerwertung!C8:I8)</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <f>SUM(Fahrerwertung!C8:J8)</f>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <f>SUM(Fahrerwertung!C8:K8)</f>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I6">
         <f>SUM(Fahrerwertung!C8:L8)</f>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="J6">
         <f>SUM(Fahrerwertung!C8:M8)</f>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="K6">
         <f>SUM(Fahrerwertung!C8:N8)</f>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="L6">
         <f>SUM(Fahrerwertung!C8:N8)</f>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="M6">
         <f>SUM(Fahrerwertung!C8:O8)</f>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="N6">
         <f>SUM(Fahrerwertung!C8:P8)</f>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="O6">
         <f>SUM(Fahrerwertung!C8:Q8)</f>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="P6">
         <f>SUM(Fahrerwertung!C8:R8)</f>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="Q6">
         <f>SUM(Fahrerwertung!C8:S8)</f>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="R6">
         <f>SUM(Fahrerwertung!C8:T8)</f>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="S6">
         <f>SUM(Fahrerwertung!C8:U8)</f>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="T6">
         <f>SUM(Fahrerwertung!C8:V8)</f>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="U6">
         <f>SUM(Fahrerwertung!C8:W8)</f>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="V6">
         <f>SUM(Fahrerwertung!C8:X8)</f>
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -12791,87 +12954,87 @@
       </c>
       <c r="B7">
         <f>Fahrerwertung!C9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f>SUM(Fahrerwertung!C9:D9)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f>SUM(Fahrerwertung!C9:F9)</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <f>SUM(Fahrerwertung!C9:H9)</f>
-        <v>43</v>
+        <f>SUM(Fahrerwertung!C9:X9)</f>
+        <v>60</v>
       </c>
       <c r="F7">
         <f>SUM(Fahrerwertung!C9:I9)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <f>SUM(Fahrerwertung!C9:J9)</f>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H7">
         <f>SUM(Fahrerwertung!C9:K9)</f>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I7">
         <f>SUM(Fahrerwertung!C9:L9)</f>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="J7">
         <f>SUM(Fahrerwertung!C9:M9)</f>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="K7">
         <f>SUM(Fahrerwertung!C9:N9)</f>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="L7">
         <f>SUM(Fahrerwertung!C9:N9)</f>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="M7">
         <f>SUM(Fahrerwertung!C9:O9)</f>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <f>SUM(Fahrerwertung!C9:P9)</f>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="O7">
         <f>SUM(Fahrerwertung!C9:Q9)</f>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="P7">
         <f>SUM(Fahrerwertung!C9:R9)</f>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="Q7">
         <f>SUM(Fahrerwertung!C9:S9)</f>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="R7">
         <f>SUM(Fahrerwertung!C9:T9)</f>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="S7">
         <f>SUM(Fahrerwertung!C9:U9)</f>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="T7">
         <f>SUM(Fahrerwertung!C9:V9)</f>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="U7">
         <f>SUM(Fahrerwertung!C9:W9)</f>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="V7">
         <f>SUM(Fahrerwertung!C9:X9)</f>
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -12891,12 +13054,12 @@
         <v>28</v>
       </c>
       <c r="E8">
-        <f>SUM(Fahrerwertung!C10:H10)</f>
+        <f>SUM(Fahrerwertung!C10:X10)</f>
         <v>42</v>
       </c>
       <c r="F8">
         <f>SUM(Fahrerwertung!C10:I10)</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <f>SUM(Fahrerwertung!C10:J10)</f>
@@ -12980,12 +13143,12 @@
         <v>31</v>
       </c>
       <c r="E9">
-        <f>SUM(Fahrerwertung!C11:H11)</f>
+        <f>SUM(Fahrerwertung!C11:X11)</f>
         <v>39</v>
       </c>
       <c r="F9">
         <f>SUM(Fahrerwertung!C11:I11)</f>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <f>SUM(Fahrerwertung!C11:J11)</f>
@@ -13069,76 +13232,76 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <f>SUM(Fahrerwertung!C12:H12)</f>
-        <v>33</v>
+        <f>SUM(Fahrerwertung!C12:X12)</f>
+        <v>37</v>
       </c>
       <c r="F10">
         <f>SUM(Fahrerwertung!C12:I12)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <f>SUM(Fahrerwertung!C12:J12)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H10">
         <f>SUM(Fahrerwertung!C12:K12)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <f>SUM(Fahrerwertung!C12:L12)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J10">
         <f>SUM(Fahrerwertung!C12:M12)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K10">
         <f>SUM(Fahrerwertung!C12:N12)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L10">
         <f>SUM(Fahrerwertung!C12:N12)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M10">
         <f>SUM(Fahrerwertung!C12:O12)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <f>SUM(Fahrerwertung!C12:P12)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O10">
         <f>SUM(Fahrerwertung!C12:Q12)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P10">
         <f>SUM(Fahrerwertung!C12:R12)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q10">
         <f>SUM(Fahrerwertung!C12:S12)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="R10">
         <f>SUM(Fahrerwertung!C12:T12)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S10">
         <f>SUM(Fahrerwertung!C12:U12)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="T10">
         <f>SUM(Fahrerwertung!C12:V12)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="U10">
         <f>SUM(Fahrerwertung!C12:W12)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="V10">
         <f>SUM(Fahrerwertung!C12:X12)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -13147,87 +13310,87 @@
       </c>
       <c r="B11">
         <f>Fahrerwertung!C13</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <f>SUM(Fahrerwertung!C13:D13)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <f>SUM(Fahrerwertung!C13:F13)</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <f>SUM(Fahrerwertung!C13:H13)</f>
-        <v>27</v>
+        <f>SUM(Fahrerwertung!C13:X13)</f>
+        <v>32</v>
       </c>
       <c r="F11">
         <f>SUM(Fahrerwertung!C13:I13)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <f>SUM(Fahrerwertung!C13:J13)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <f>SUM(Fahrerwertung!C13:K13)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I11">
         <f>SUM(Fahrerwertung!C13:L13)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J11">
         <f>SUM(Fahrerwertung!C13:M13)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K11">
         <f>SUM(Fahrerwertung!C13:N13)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L11">
         <f>SUM(Fahrerwertung!C13:N13)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M11">
         <f>SUM(Fahrerwertung!C13:O13)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <f>SUM(Fahrerwertung!C13:P13)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O11">
         <f>SUM(Fahrerwertung!C13:Q13)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="P11">
         <f>SUM(Fahrerwertung!C13:R13)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q11">
         <f>SUM(Fahrerwertung!C13:S13)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="R11">
         <f>SUM(Fahrerwertung!C13:T13)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="S11">
         <f>SUM(Fahrerwertung!C13:U13)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="T11">
         <f>SUM(Fahrerwertung!C13:V13)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="U11">
         <f>SUM(Fahrerwertung!C13:W13)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="V11">
         <f>SUM(Fahrerwertung!C13:X13)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -13236,7 +13399,7 @@
       </c>
       <c r="B12">
         <f>Fahrerwertung!C14</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <f>SUM(Fahrerwertung!C14:D14)</f>
@@ -13244,79 +13407,79 @@
       </c>
       <c r="D12">
         <f>SUM(Fahrerwertung!C14:F14)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <f>SUM(Fahrerwertung!C14:H14)</f>
-        <v>18</v>
+        <f>SUM(Fahrerwertung!C14:X14)</f>
+        <v>27</v>
       </c>
       <c r="F12">
         <f>SUM(Fahrerwertung!C14:I14)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G12">
         <f>SUM(Fahrerwertung!C14:J14)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H12">
         <f>SUM(Fahrerwertung!C14:K14)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I12">
         <f>SUM(Fahrerwertung!C14:L14)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J12">
         <f>SUM(Fahrerwertung!C14:M14)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K12">
         <f>SUM(Fahrerwertung!C14:N14)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L12">
         <f>SUM(Fahrerwertung!C14:N14)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M12">
         <f>SUM(Fahrerwertung!C14:O14)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <f>SUM(Fahrerwertung!C14:P14)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="O12">
         <f>SUM(Fahrerwertung!C14:Q14)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="P12">
         <f>SUM(Fahrerwertung!C14:R14)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="Q12">
         <f>SUM(Fahrerwertung!C14:S14)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="R12">
         <f>SUM(Fahrerwertung!C14:T14)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="S12">
         <f>SUM(Fahrerwertung!C14:U14)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="T12">
         <f>SUM(Fahrerwertung!C14:V14)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="U12">
         <f>SUM(Fahrerwertung!C14:W14)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="V12">
         <f>SUM(Fahrerwertung!C14:X14)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -13336,76 +13499,76 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <f>SUM(Fahrerwertung!C15:H15)</f>
-        <v>12</v>
+        <f>SUM(Fahrerwertung!C15:X15)</f>
+        <v>22</v>
       </c>
       <c r="F13">
         <f>SUM(Fahrerwertung!C15:I15)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G13">
         <f>SUM(Fahrerwertung!C15:J15)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H13">
         <f>SUM(Fahrerwertung!C15:K15)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I13">
         <f>SUM(Fahrerwertung!C15:L15)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J13">
         <f>SUM(Fahrerwertung!C15:M15)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K13">
         <f>SUM(Fahrerwertung!C15:N15)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L13">
         <f>SUM(Fahrerwertung!C15:N15)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M13">
         <f>SUM(Fahrerwertung!C15:O15)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <f>SUM(Fahrerwertung!C15:P15)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="O13">
         <f>SUM(Fahrerwertung!C15:Q15)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="P13">
         <f>SUM(Fahrerwertung!C15:R15)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q13">
         <f>SUM(Fahrerwertung!C15:S15)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="R13">
         <f>SUM(Fahrerwertung!C15:T15)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="S13">
         <f>SUM(Fahrerwertung!C15:U15)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="T13">
         <f>SUM(Fahrerwertung!C15:V15)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="U13">
         <f>SUM(Fahrerwertung!C15:W15)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="V13">
         <f>SUM(Fahrerwertung!C15:X15)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -13414,87 +13577,87 @@
       </c>
       <c r="B14">
         <f>Fahrerwertung!C16</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <f>SUM(Fahrerwertung!C16:D16)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <f>SUM(Fahrerwertung!C16:F16)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <f>SUM(Fahrerwertung!C16:H16)</f>
-        <v>10</v>
+        <f>SUM(Fahrerwertung!C16:X16)</f>
+        <v>18</v>
       </c>
       <c r="F14">
         <f>SUM(Fahrerwertung!C16:I16)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <f>SUM(Fahrerwertung!C16:J16)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H14">
         <f>SUM(Fahrerwertung!C16:K16)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I14">
         <f>SUM(Fahrerwertung!C16:L16)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J14">
         <f>SUM(Fahrerwertung!C16:M16)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K14">
         <f>SUM(Fahrerwertung!C16:N16)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L14">
         <f>SUM(Fahrerwertung!C16:N16)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M14">
         <f>SUM(Fahrerwertung!C16:O16)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N14">
         <f>SUM(Fahrerwertung!C16:P16)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O14">
         <f>SUM(Fahrerwertung!C16:Q16)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P14">
         <f>SUM(Fahrerwertung!C16:R16)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q14">
         <f>SUM(Fahrerwertung!C16:S16)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R14">
         <f>SUM(Fahrerwertung!C16:T16)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="S14">
         <f>SUM(Fahrerwertung!C16:U16)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="T14">
         <f>SUM(Fahrerwertung!C16:V16)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="U14">
         <f>SUM(Fahrerwertung!C16:W16)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="V14">
         <f>SUM(Fahrerwertung!C16:X16)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -13507,83 +13670,83 @@
       </c>
       <c r="C15">
         <f>SUM(Fahrerwertung!C17:D17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <f>SUM(Fahrerwertung!C17:F17)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <f>SUM(Fahrerwertung!C17:H17)</f>
-        <v>2</v>
+        <f>SUM(Fahrerwertung!C17:X17)</f>
+        <v>13</v>
       </c>
       <c r="F15">
         <f>SUM(Fahrerwertung!C17:I17)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G15">
         <f>SUM(Fahrerwertung!C17:J17)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H15">
         <f>SUM(Fahrerwertung!C17:K17)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I15">
         <f>SUM(Fahrerwertung!C17:L17)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J15">
         <f>SUM(Fahrerwertung!C17:M17)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K15">
         <f>SUM(Fahrerwertung!C17:N17)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L15">
         <f>SUM(Fahrerwertung!C17:N17)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M15">
         <f>SUM(Fahrerwertung!C17:O17)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <f>SUM(Fahrerwertung!C17:P17)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O15">
         <f>SUM(Fahrerwertung!C17:Q17)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="P15">
         <f>SUM(Fahrerwertung!C17:R17)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q15">
         <f>SUM(Fahrerwertung!C17:S17)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="R15">
         <f>SUM(Fahrerwertung!C17:T17)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="S15">
         <f>SUM(Fahrerwertung!C17:U17)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="T15">
         <f>SUM(Fahrerwertung!C17:V17)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="U15">
         <f>SUM(Fahrerwertung!C17:W17)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="V15">
         <f>SUM(Fahrerwertung!C17:X17)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -13603,76 +13766,76 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <f>SUM(Fahrerwertung!C18:H18)</f>
-        <v>2</v>
+        <f>SUM(Fahrerwertung!C18:X18)</f>
+        <v>12</v>
       </c>
       <c r="F16">
         <f>SUM(Fahrerwertung!C18:I18)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G16">
         <f>SUM(Fahrerwertung!C18:J18)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H16">
         <f>SUM(Fahrerwertung!C18:K18)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I16">
         <f>SUM(Fahrerwertung!C18:L18)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J16">
         <f>SUM(Fahrerwertung!C18:M18)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K16">
         <f>SUM(Fahrerwertung!C18:N18)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L16">
         <f>SUM(Fahrerwertung!C18:N18)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M16">
         <f>SUM(Fahrerwertung!C18:O18)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N16">
         <f>SUM(Fahrerwertung!C18:P18)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O16">
         <f>SUM(Fahrerwertung!C18:Q18)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P16">
         <f>SUM(Fahrerwertung!C18:R18)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q16">
         <f>SUM(Fahrerwertung!C18:S18)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R16">
         <f>SUM(Fahrerwertung!C18:T18)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="S16">
         <f>SUM(Fahrerwertung!C18:U18)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="T16">
         <f>SUM(Fahrerwertung!C18:V18)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="U16">
         <f>SUM(Fahrerwertung!C18:W18)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="V16">
         <f>SUM(Fahrerwertung!C18:X18)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -13685,83 +13848,83 @@
       </c>
       <c r="C17">
         <f>SUM(Fahrerwertung!C19:D19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <f>SUM(Fahrerwertung!C19:F19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <f>SUM(Fahrerwertung!C19:H19)</f>
-        <v>1</v>
+        <f>SUM(Fahrerwertung!C19:X19)</f>
+        <v>9</v>
       </c>
       <c r="F17">
         <f>SUM(Fahrerwertung!C19:I19)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <f>SUM(Fahrerwertung!C19:J19)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H17">
         <f>SUM(Fahrerwertung!C19:K19)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <f>SUM(Fahrerwertung!C19:L19)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J17">
         <f>SUM(Fahrerwertung!C19:M19)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K17">
         <f>SUM(Fahrerwertung!C19:N19)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L17">
         <f>SUM(Fahrerwertung!C19:N19)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M17">
         <f>SUM(Fahrerwertung!C19:O19)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N17">
         <f>SUM(Fahrerwertung!C19:P19)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O17">
         <f>SUM(Fahrerwertung!C19:Q19)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P17">
         <f>SUM(Fahrerwertung!C19:R19)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q17">
         <f>SUM(Fahrerwertung!C19:S19)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R17">
         <f>SUM(Fahrerwertung!C19:T19)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S17">
         <f>SUM(Fahrerwertung!C19:U19)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T17">
         <f>SUM(Fahrerwertung!C19:V19)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U17">
         <f>SUM(Fahrerwertung!C19:W19)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V17">
         <f>SUM(Fahrerwertung!C19:X19)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -13778,79 +13941,79 @@
       </c>
       <c r="D18">
         <f>SUM(Fahrerwertung!C20:F20)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <f>SUM(Fahrerwertung!C20:H20)</f>
-        <v>1</v>
+        <f>SUM(Fahrerwertung!C20:X20)</f>
+        <v>8</v>
       </c>
       <c r="F18">
         <f>SUM(Fahrerwertung!C20:I20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G18">
         <f>SUM(Fahrerwertung!C20:J20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <f>SUM(Fahrerwertung!C20:K20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I18">
         <f>SUM(Fahrerwertung!C20:L20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J18">
         <f>SUM(Fahrerwertung!C20:M20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K18">
         <f>SUM(Fahrerwertung!C20:N20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L18">
         <f>SUM(Fahrerwertung!C20:N20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M18">
         <f>SUM(Fahrerwertung!C20:O20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N18">
         <f>SUM(Fahrerwertung!C20:P20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O18">
         <f>SUM(Fahrerwertung!C20:Q20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P18">
         <f>SUM(Fahrerwertung!C20:R20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q18">
         <f>SUM(Fahrerwertung!C20:S20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R18">
         <f>SUM(Fahrerwertung!C20:T20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S18">
         <f>SUM(Fahrerwertung!C20:U20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T18">
         <f>SUM(Fahrerwertung!C20:V20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U18">
         <f>SUM(Fahrerwertung!C20:W20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V18">
         <f>SUM(Fahrerwertung!C20:X20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -13870,76 +14033,76 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <f>SUM(Fahrerwertung!C21:H21)</f>
-        <v>0</v>
+        <f>SUM(Fahrerwertung!C21:X21)</f>
+        <v>2</v>
       </c>
       <c r="F19">
         <f>SUM(Fahrerwertung!C21:I21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <f>SUM(Fahrerwertung!C21:J21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <f>SUM(Fahrerwertung!C21:K21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <f>SUM(Fahrerwertung!C21:L21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <f>SUM(Fahrerwertung!C21:M21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19">
         <f>SUM(Fahrerwertung!C21:N21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <f>SUM(Fahrerwertung!C21:N21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19">
         <f>SUM(Fahrerwertung!C21:O21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <f>SUM(Fahrerwertung!C21:P21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19">
         <f>SUM(Fahrerwertung!C21:Q21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19">
         <f>SUM(Fahrerwertung!C21:R21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q19">
         <f>SUM(Fahrerwertung!C21:S21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19">
         <f>SUM(Fahrerwertung!C21:T21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S19">
         <f>SUM(Fahrerwertung!C21:U21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T19">
         <f>SUM(Fahrerwertung!C21:V21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U19">
         <f>SUM(Fahrerwertung!C21:W21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V19">
         <f>SUM(Fahrerwertung!C21:X21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -13959,76 +14122,76 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <f>SUM(Fahrerwertung!C22:H22)</f>
-        <v>0</v>
+        <f>SUM(Fahrerwertung!C22:X22)</f>
+        <v>2</v>
       </c>
       <c r="F20">
         <f>SUM(Fahrerwertung!C22:I22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <f>SUM(Fahrerwertung!C22:J22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <f>SUM(Fahrerwertung!C22:K22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <f>SUM(Fahrerwertung!C22:L22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20">
         <f>SUM(Fahrerwertung!C22:M22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20">
         <f>SUM(Fahrerwertung!C22:N22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <f>SUM(Fahrerwertung!C22:N22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20">
         <f>SUM(Fahrerwertung!C22:O22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20">
         <f>SUM(Fahrerwertung!C22:P22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20">
         <f>SUM(Fahrerwertung!C22:Q22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20">
         <f>SUM(Fahrerwertung!C22:R22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q20">
         <f>SUM(Fahrerwertung!C22:S22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R20">
         <f>SUM(Fahrerwertung!C22:T22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S20">
         <f>SUM(Fahrerwertung!C22:U22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T20">
         <f>SUM(Fahrerwertung!C22:V22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U20">
         <f>SUM(Fahrerwertung!C22:W22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V20">
         <f>SUM(Fahrerwertung!C22:X22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -14048,7 +14211,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <f>SUM(Fahrerwertung!C23:H23)</f>
+        <f>SUM(Fahrerwertung!C23:X23)</f>
         <v>0</v>
       </c>
       <c r="F21">

--- a/seasons_excel/Formel1_2020_WM_1.xlsx
+++ b/seasons_excel/Formel1_2020_WM_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timkeller/git_repos/TK5/F1-virtualWC/seasons_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD396F05-F856-4E41-A4C8-D320D95F6997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61EBDFF-5CE2-254E-8234-A56227C02597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34760" yWindow="1200" windowWidth="28800" windowHeight="17540" xr2:uid="{15EF9A06-B4D9-F442-81AB-3E6205016DF9}"/>
+    <workbookView xWindow="67200" yWindow="460" windowWidth="33720" windowHeight="17540" xr2:uid="{15EF9A06-B4D9-F442-81AB-3E6205016DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Fahrerwertung" sheetId="1" r:id="rId1"/>
@@ -527,64 +527,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>Andi </c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Paul</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Andi </c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>Verstappen</c:v>
+                  <c:v>Lorenz </c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Hamilton</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Verstappen</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Räikkönen</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Lorenz </c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Vettel</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Norris</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Ocon</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Perez</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Norris</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>Kyvat</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Leclerc</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Ricciardo</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Albon </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Russell</c:v>
+                  <c:v>Tim </c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Magnussen </c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Ricciardo</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sainz</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Russell</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Grosjean</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>Kyvat</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Sainz</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>Latifi</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Tim </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -596,64 +596,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>168</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>133</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>37</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1036,7 +1036,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Paul</c:v>
+                  <c:v>Andi </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1072,28 +1072,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="13">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26</c:v>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1114,7 +1141,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Andi </c:v>
+                  <c:v>Paul</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1150,28 +1177,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1250,6 +1304,33 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1335,6 +1416,33 @@
                 <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1354,7 +1462,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tim </c:v>
+                  <c:v>Latifi</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1411,12 +1519,39 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1785,7 +1920,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Paul</c:v>
+                  <c:v>Andi </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1807,28 +1942,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="13">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26</c:v>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1848,7 +2010,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Andi </c:v>
+                  <c:v>Paul</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1870,28 +2032,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,10 +2458,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>Andi </c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Paul</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Andi </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2284,10 +2473,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>168</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>133</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2466,10 +2655,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>Andi </c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Paul</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Andi </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2481,10 +2670,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>168</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>133</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2846,67 +3035,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>168</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>142</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>168</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>168</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>168</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>168</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>168</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>168</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>168</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>168</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>168</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>168</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>168</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>168</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>168</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>168</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3022,67 +3211,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>115</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>133</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>133</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>133</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>133</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>133</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>133</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>133</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>133</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>133</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>133</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>133</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>133</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>133</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>133</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>133</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>133</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3201,64 +3390,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>78</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>78</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>78</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>78</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>78</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>78</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>78</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>78</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>78</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>78</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3383,7 +3572,7 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>56</c:v>
@@ -3401,40 +3590,40 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>66</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>66</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>66</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>66</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>66</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>66</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>66</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3550,67 +3739,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>61</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>61</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>61</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>61</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3726,67 +3915,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>60</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>60</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>60</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>60</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3913,7 +4102,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>38</c:v>
@@ -3922,49 +4111,49 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4082,67 +4271,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>39</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4260,67 +4449,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4438,67 +4627,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4616,67 +4805,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>27</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4794,67 +4983,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4982,7 +5171,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12</c:v>
@@ -4991,49 +5180,49 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5155,64 +5344,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5340,7 +5529,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12</c:v>
@@ -5349,49 +5538,49 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5510,67 +5699,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5695,61 +5884,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5871,64 +6060,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6055,58 +6244,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6233,58 +6422,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10339,7 +10528,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10441,102 +10630,183 @@
       </c>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="22" t="s">
-        <v>66</v>
+      <c r="A4" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <f>SUM(C4:X4)</f>
-        <v>168</v>
+        <v>339</v>
       </c>
       <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>18</v>
+      </c>
+      <c r="K4">
         <v>19</v>
       </c>
-      <c r="D4">
+      <c r="L4">
+        <v>25</v>
+      </c>
+      <c r="M4">
+        <v>18</v>
+      </c>
+      <c r="N4">
+        <v>25</v>
+      </c>
+      <c r="O4">
         <v>26</v>
       </c>
-      <c r="E4">
+      <c r="P4">
         <v>26</v>
       </c>
-      <c r="F4">
-        <v>19</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="Q4">
+        <v>25</v>
+      </c>
+      <c r="R4">
         <v>26</v>
       </c>
-      <c r="I4">
-        <v>26</v>
-      </c>
-      <c r="J4">
-        <v>26</v>
+      <c r="S4">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
+      <c r="A5" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="B5">
         <f>SUM(C5:X5)</f>
-        <v>133</v>
+        <v>338</v>
       </c>
       <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>26</v>
+      </c>
+      <c r="I5">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>26</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <v>19</v>
+      </c>
+      <c r="M5">
         <v>25</v>
       </c>
-      <c r="D5">
+      <c r="N5">
+        <v>16</v>
+      </c>
+      <c r="O5">
         <v>18</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>19</v>
+      </c>
+      <c r="R5">
+        <v>18</v>
+      </c>
+      <c r="S5">
         <v>25</v>
-      </c>
-      <c r="G5">
-        <v>25</v>
-      </c>
-      <c r="H5">
-        <v>18</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="23" t="s">
-        <v>7</v>
+      <c r="A6" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="B6">
         <f>SUM(C6:X6)</f>
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="J6">
         <v>15</v>
       </c>
-      <c r="F6">
+      <c r="K6">
+        <v>25</v>
+      </c>
+      <c r="L6">
         <v>15</v>
       </c>
-      <c r="G6">
+      <c r="M6">
+        <v>16</v>
+      </c>
+      <c r="N6">
         <v>18</v>
       </c>
-      <c r="H6">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>18</v>
+      </c>
+      <c r="Q6">
         <v>15</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+      <c r="R6">
+        <v>12</v>
+      </c>
+      <c r="S6">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -10545,7 +10815,7 @@
       </c>
       <c r="B7">
         <f>SUM(C7:X7)</f>
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -10571,6 +10841,33 @@
       <c r="J7">
         <v>10</v>
       </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>12</v>
+      </c>
       <c r="AD7">
         <v>1</v>
       </c>
@@ -10582,36 +10879,63 @@
       </c>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="8" t="s">
-        <v>13</v>
+      <c r="A8" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
         <f>SUM(C8:X8)</f>
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>6</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>18</v>
-      </c>
-      <c r="J8">
-        <v>12</v>
       </c>
       <c r="AE8" s="1" t="s">
         <v>61</v>
@@ -10622,35 +10946,62 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <f>SUM(C9:X9)</f>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>18</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="J9">
         <v>12</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>15</v>
-      </c>
-      <c r="J9">
-        <v>15</v>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
       </c>
       <c r="AD9">
         <v>2</v>
@@ -10668,7 +11019,7 @@
       </c>
       <c r="B10">
         <f>SUM(C10:X10)</f>
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -10694,6 +11045,33 @@
       <c r="J10">
         <v>4</v>
       </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
       <c r="AE10" s="2" t="s">
         <v>59</v>
       </c>
@@ -10702,36 +11080,63 @@
       </c>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="4" t="s">
-        <v>63</v>
+      <c r="A11" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B11">
         <f>SUM(C11:X11)</f>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>12</v>
       </c>
-      <c r="D11">
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="E11">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>8</v>
+      <c r="R11">
+        <v>15</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
       </c>
       <c r="AD11">
         <v>3</v>
@@ -10744,36 +11149,63 @@
       </c>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="9" t="s">
-        <v>12</v>
+      <c r="A12" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B12">
         <f>SUM(C12:X12)</f>
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="D12">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+      <c r="P12">
         <v>8</v>
       </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
       </c>
       <c r="AE12" s="6" t="s">
         <v>15</v>
@@ -10783,35 +11215,62 @@
       </c>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="3" t="s">
-        <v>65</v>
+      <c r="A13" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B13">
         <f>SUM(C13:X13)</f>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>8</v>
+      </c>
+      <c r="S13">
         <v>0</v>
       </c>
       <c r="AD13">
@@ -10825,36 +11284,63 @@
       </c>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
+      <c r="A14" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="B14">
         <f>SUM(C14:X14)</f>
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>8</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <v>8</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
       </c>
       <c r="AE14" s="5" t="s">
         <v>10</v>
@@ -10864,35 +11350,62 @@
       </c>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="4" t="s">
-        <v>9</v>
+      <c r="A15" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B15">
         <f>SUM(C15:X15)</f>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>6</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>8</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>0</v>
       </c>
       <c r="AD15">
@@ -10911,7 +11424,7 @@
       </c>
       <c r="B16">
         <f>SUM(C16:X16)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -10937,6 +11450,33 @@
       <c r="J16">
         <v>6</v>
       </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
       <c r="AE16" s="9" t="s">
         <v>12</v>
       </c>
@@ -10945,35 +11485,62 @@
       </c>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" t="s">
-        <v>17</v>
+      <c r="A17" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B17">
         <f>SUM(C17:X17)</f>
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>12</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>12</v>
       </c>
-      <c r="J17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>0</v>
       </c>
       <c r="AD17">
@@ -10992,7 +11559,7 @@
       </c>
       <c r="B18">
         <f>SUM(C18:X18)</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -11018,6 +11585,33 @@
       <c r="J18">
         <v>0</v>
       </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>6</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
       <c r="AE18" s="3" t="s">
         <v>60</v>
       </c>
@@ -11026,15 +11620,15 @@
       </c>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="5" t="s">
-        <v>10</v>
+      <c r="A19" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B19">
         <f>SUM(C19:X19)</f>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -11043,19 +11637,46 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>4</v>
       </c>
       <c r="AD19">
         <v>7</v>
@@ -11068,12 +11689,12 @@
       </c>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="22" t="s">
-        <v>18</v>
+      <c r="A20" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B20">
         <f>SUM(C20:X20)</f>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -11085,18 +11706,45 @@
         <v>0</v>
       </c>
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>2</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>15</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
         <v>0</v>
       </c>
       <c r="AE20" s="4" t="s">
@@ -11107,35 +11755,62 @@
       </c>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="3" t="s">
-        <v>60</v>
+      <c r="A21" t="s">
+        <v>17</v>
       </c>
       <c r="B21">
         <f>SUM(C21:X21)</f>
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>2</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>0</v>
       </c>
       <c r="AD21">
@@ -11149,35 +11824,62 @@
       </c>
     </row>
     <row r="22" spans="1:32">
-      <c r="A22" t="s">
-        <v>62</v>
+      <c r="A22" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B22">
         <f>SUM(C22:X22)</f>
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
         <v>2</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
+      <c r="O22">
+        <v>8</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>0</v>
       </c>
       <c r="AE22" s="8" t="s">
@@ -11188,12 +11890,12 @@
       </c>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
+      <c r="A23" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
         <f>SUM(C23:X23)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -11211,12 +11913,39 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>12</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>0</v>
       </c>
       <c r="AD23">
@@ -12509,87 +13238,87 @@
       </c>
       <c r="B2">
         <f>Fahrerwertung!C4</f>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <f>SUM(Fahrerwertung!C4:D4)</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <f>SUM(Fahrerwertung!C4:F4)</f>
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <f>SUM(Fahrerwertung!C4:X4)</f>
-        <v>168</v>
+        <v>339</v>
       </c>
       <c r="F2">
         <f>SUM(Fahrerwertung!C4:I4)</f>
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="G2">
         <f>SUM(Fahrerwertung!C4:J4)</f>
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="H2">
         <f>SUM(Fahrerwertung!C4:K4)</f>
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="I2">
         <f>SUM(Fahrerwertung!C4:L4)</f>
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="J2">
         <f>SUM(Fahrerwertung!C4:M4)</f>
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="K2">
         <f>SUM(Fahrerwertung!C4:N4)</f>
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="L2">
         <f>SUM(Fahrerwertung!C4:N4)</f>
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="M2">
         <f>SUM(Fahrerwertung!C4:O4)</f>
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="N2">
         <f>SUM(Fahrerwertung!C4:P4)</f>
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="O2">
         <f>SUM(Fahrerwertung!C4:Q4)</f>
-        <v>168</v>
+        <v>297</v>
       </c>
       <c r="P2">
         <f>SUM(Fahrerwertung!C4:R4)</f>
-        <v>168</v>
+        <v>323</v>
       </c>
       <c r="Q2">
         <f>SUM(Fahrerwertung!C4:S4)</f>
-        <v>168</v>
+        <v>339</v>
       </c>
       <c r="R2">
         <f>SUM(Fahrerwertung!C4:T4)</f>
-        <v>168</v>
+        <v>339</v>
       </c>
       <c r="S2">
         <f>SUM(Fahrerwertung!C4:U4)</f>
-        <v>168</v>
+        <v>339</v>
       </c>
       <c r="T2">
         <f>SUM(Fahrerwertung!C4:V4)</f>
-        <v>168</v>
+        <v>339</v>
       </c>
       <c r="U2">
         <f>SUM(Fahrerwertung!C4:W4)</f>
-        <v>168</v>
+        <v>339</v>
       </c>
       <c r="V2">
         <f>SUM(Fahrerwertung!C4:X4)</f>
-        <v>168</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -12598,87 +13327,87 @@
       </c>
       <c r="B3">
         <f>Fahrerwertung!C5</f>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <f>SUM(Fahrerwertung!C5:D5)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <f>SUM(Fahrerwertung!C5:F5)</f>
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <f>SUM(Fahrerwertung!C5:X5)</f>
-        <v>133</v>
+        <v>338</v>
       </c>
       <c r="F3">
         <f>SUM(Fahrerwertung!C5:I5)</f>
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G3">
         <f>SUM(Fahrerwertung!C5:J5)</f>
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="H3">
         <f>SUM(Fahrerwertung!C5:K5)</f>
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="I3">
         <f>SUM(Fahrerwertung!C5:L5)</f>
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="J3">
         <f>SUM(Fahrerwertung!C5:M5)</f>
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="K3">
         <f>SUM(Fahrerwertung!C5:N5)</f>
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="L3">
         <f>SUM(Fahrerwertung!C5:N5)</f>
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="M3">
         <f>SUM(Fahrerwertung!C5:O5)</f>
-        <v>133</v>
+        <v>261</v>
       </c>
       <c r="N3">
         <f>SUM(Fahrerwertung!C5:P5)</f>
-        <v>133</v>
+        <v>276</v>
       </c>
       <c r="O3">
         <f>SUM(Fahrerwertung!C5:Q5)</f>
-        <v>133</v>
+        <v>295</v>
       </c>
       <c r="P3">
         <f>SUM(Fahrerwertung!C5:R5)</f>
-        <v>133</v>
+        <v>313</v>
       </c>
       <c r="Q3">
         <f>SUM(Fahrerwertung!C5:S5)</f>
-        <v>133</v>
+        <v>338</v>
       </c>
       <c r="R3">
         <f>SUM(Fahrerwertung!C5:T5)</f>
-        <v>133</v>
+        <v>338</v>
       </c>
       <c r="S3">
         <f>SUM(Fahrerwertung!C5:U5)</f>
-        <v>133</v>
+        <v>338</v>
       </c>
       <c r="T3">
         <f>SUM(Fahrerwertung!C5:V5)</f>
-        <v>133</v>
+        <v>338</v>
       </c>
       <c r="U3">
         <f>SUM(Fahrerwertung!C5:W5)</f>
-        <v>133</v>
+        <v>338</v>
       </c>
       <c r="V3">
         <f>SUM(Fahrerwertung!C5:X5)</f>
-        <v>133</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -12691,83 +13420,83 @@
       </c>
       <c r="C4">
         <f>SUM(Fahrerwertung!C6:D6)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f>SUM(Fahrerwertung!C6:F6)</f>
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <f>SUM(Fahrerwertung!C6:X6)</f>
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="F4">
         <f>SUM(Fahrerwertung!C6:I6)</f>
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <f>SUM(Fahrerwertung!C6:J6)</f>
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <f>SUM(Fahrerwertung!C6:K6)</f>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <f>SUM(Fahrerwertung!C6:L6)</f>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J4">
         <f>SUM(Fahrerwertung!C6:M6)</f>
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="K4">
         <f>SUM(Fahrerwertung!C6:N6)</f>
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="L4">
         <f>SUM(Fahrerwertung!C6:N6)</f>
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="M4">
         <f>SUM(Fahrerwertung!C6:O6)</f>
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="N4">
         <f>SUM(Fahrerwertung!C6:P6)</f>
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="O4">
         <f>SUM(Fahrerwertung!C6:Q6)</f>
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="P4">
         <f>SUM(Fahrerwertung!C6:R6)</f>
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="Q4">
         <f>SUM(Fahrerwertung!C6:S6)</f>
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="R4">
         <f>SUM(Fahrerwertung!C6:T6)</f>
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="S4">
         <f>SUM(Fahrerwertung!C6:U6)</f>
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="T4">
         <f>SUM(Fahrerwertung!C6:V6)</f>
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="U4">
         <f>SUM(Fahrerwertung!C6:W6)</f>
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="V4">
         <f>SUM(Fahrerwertung!C6:X6)</f>
-        <v>78</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -12788,7 +13517,7 @@
       </c>
       <c r="E5">
         <f>SUM(Fahrerwertung!C7:X7)</f>
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="F5">
         <f>SUM(Fahrerwertung!C7:I7)</f>
@@ -12812,51 +13541,51 @@
       </c>
       <c r="K5">
         <f>SUM(Fahrerwertung!C7:N7)</f>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="L5">
         <f>SUM(Fahrerwertung!C7:N7)</f>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="M5">
         <f>SUM(Fahrerwertung!C7:O7)</f>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="N5">
         <f>SUM(Fahrerwertung!C7:P7)</f>
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="O5">
         <f>SUM(Fahrerwertung!C7:Q7)</f>
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="P5">
         <f>SUM(Fahrerwertung!C7:R7)</f>
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="Q5">
         <f>SUM(Fahrerwertung!C7:S7)</f>
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="R5">
         <f>SUM(Fahrerwertung!C7:T7)</f>
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="S5">
         <f>SUM(Fahrerwertung!C7:U7)</f>
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="T5">
         <f>SUM(Fahrerwertung!C7:V7)</f>
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="U5">
         <f>SUM(Fahrerwertung!C7:W7)</f>
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="V5">
         <f>SUM(Fahrerwertung!C7:X7)</f>
-        <v>66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -12865,87 +13594,87 @@
       </c>
       <c r="B6">
         <f>Fahrerwertung!C8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>SUM(Fahrerwertung!C8:D8)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <f>SUM(Fahrerwertung!C8:F8)</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <f>SUM(Fahrerwertung!C8:X8)</f>
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="F6">
         <f>SUM(Fahrerwertung!C8:I8)</f>
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G6">
         <f>SUM(Fahrerwertung!C8:J8)</f>
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="H6">
         <f>SUM(Fahrerwertung!C8:K8)</f>
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I6">
         <f>SUM(Fahrerwertung!C8:L8)</f>
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="J6">
         <f>SUM(Fahrerwertung!C8:M8)</f>
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="K6">
         <f>SUM(Fahrerwertung!C8:N8)</f>
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L6">
         <f>SUM(Fahrerwertung!C8:N8)</f>
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="M6">
         <f>SUM(Fahrerwertung!C8:O8)</f>
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <f>SUM(Fahrerwertung!C8:P8)</f>
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="O6">
         <f>SUM(Fahrerwertung!C8:Q8)</f>
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="P6">
         <f>SUM(Fahrerwertung!C8:R8)</f>
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="Q6">
         <f>SUM(Fahrerwertung!C8:S8)</f>
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="R6">
         <f>SUM(Fahrerwertung!C8:T8)</f>
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="S6">
         <f>SUM(Fahrerwertung!C8:U8)</f>
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="T6">
         <f>SUM(Fahrerwertung!C8:V8)</f>
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="U6">
         <f>SUM(Fahrerwertung!C8:W8)</f>
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="V6">
         <f>SUM(Fahrerwertung!C8:X8)</f>
-        <v>61</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -12954,87 +13683,87 @@
       </c>
       <c r="B7">
         <f>Fahrerwertung!C9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f>SUM(Fahrerwertung!C9:D9)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <f>SUM(Fahrerwertung!C9:F9)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <f>SUM(Fahrerwertung!C9:X9)</f>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F7">
         <f>SUM(Fahrerwertung!C9:I9)</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G7">
         <f>SUM(Fahrerwertung!C9:J9)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H7">
         <f>SUM(Fahrerwertung!C9:K9)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7">
         <f>SUM(Fahrerwertung!C9:L9)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J7">
         <f>SUM(Fahrerwertung!C9:M9)</f>
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="K7">
         <f>SUM(Fahrerwertung!C9:N9)</f>
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="L7">
         <f>SUM(Fahrerwertung!C9:N9)</f>
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="M7">
         <f>SUM(Fahrerwertung!C9:O9)</f>
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="N7">
         <f>SUM(Fahrerwertung!C9:P9)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="O7">
         <f>SUM(Fahrerwertung!C9:Q9)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="P7">
         <f>SUM(Fahrerwertung!C9:R9)</f>
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="Q7">
         <f>SUM(Fahrerwertung!C9:S9)</f>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="R7">
         <f>SUM(Fahrerwertung!C9:T9)</f>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="S7">
         <f>SUM(Fahrerwertung!C9:U9)</f>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="T7">
         <f>SUM(Fahrerwertung!C9:V9)</f>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="U7">
         <f>SUM(Fahrerwertung!C9:W9)</f>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="V7">
         <f>SUM(Fahrerwertung!C9:X9)</f>
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -13055,7 +13784,7 @@
       </c>
       <c r="E8">
         <f>SUM(Fahrerwertung!C10:X10)</f>
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F8">
         <f>SUM(Fahrerwertung!C10:I10)</f>
@@ -13067,63 +13796,63 @@
       </c>
       <c r="H8">
         <f>SUM(Fahrerwertung!C10:K10)</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I8">
         <f>SUM(Fahrerwertung!C10:L10)</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="J8">
         <f>SUM(Fahrerwertung!C10:M10)</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="K8">
         <f>SUM(Fahrerwertung!C10:N10)</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="L8">
         <f>SUM(Fahrerwertung!C10:N10)</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="M8">
         <f>SUM(Fahrerwertung!C10:O10)</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <f>SUM(Fahrerwertung!C10:P10)</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="O8">
         <f>SUM(Fahrerwertung!C10:Q10)</f>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="P8">
         <f>SUM(Fahrerwertung!C10:R10)</f>
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="Q8">
         <f>SUM(Fahrerwertung!C10:S10)</f>
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="R8">
         <f>SUM(Fahrerwertung!C10:T10)</f>
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="S8">
         <f>SUM(Fahrerwertung!C10:U10)</f>
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="T8">
         <f>SUM(Fahrerwertung!C10:V10)</f>
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="U8">
         <f>SUM(Fahrerwertung!C10:W10)</f>
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="V8">
         <f>SUM(Fahrerwertung!C10:X10)</f>
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -13132,87 +13861,87 @@
       </c>
       <c r="B9">
         <f>Fahrerwertung!C11</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <f>SUM(Fahrerwertung!C11:D11)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <f>SUM(Fahrerwertung!C11:F11)</f>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <f>SUM(Fahrerwertung!C11:X11)</f>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F9">
         <f>SUM(Fahrerwertung!C11:I11)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9">
         <f>SUM(Fahrerwertung!C11:J11)</f>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <f>SUM(Fahrerwertung!C11:K11)</f>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I9">
         <f>SUM(Fahrerwertung!C11:L11)</f>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J9">
         <f>SUM(Fahrerwertung!C11:M11)</f>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K9">
         <f>SUM(Fahrerwertung!C11:N11)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L9">
         <f>SUM(Fahrerwertung!C11:N11)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M9">
         <f>SUM(Fahrerwertung!C11:O11)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <f>SUM(Fahrerwertung!C11:P11)</f>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="O9">
         <f>SUM(Fahrerwertung!C11:Q11)</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="P9">
         <f>SUM(Fahrerwertung!C11:R11)</f>
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="Q9">
         <f>SUM(Fahrerwertung!C11:S11)</f>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="R9">
         <f>SUM(Fahrerwertung!C11:T11)</f>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="S9">
         <f>SUM(Fahrerwertung!C11:U11)</f>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="T9">
         <f>SUM(Fahrerwertung!C11:V11)</f>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="U9">
         <f>SUM(Fahrerwertung!C11:W11)</f>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="V9">
         <f>SUM(Fahrerwertung!C11:X11)</f>
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -13221,87 +13950,87 @@
       </c>
       <c r="B10">
         <f>Fahrerwertung!C12</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <f>SUM(Fahrerwertung!C12:D12)</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <f>SUM(Fahrerwertung!C12:F12)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <f>SUM(Fahrerwertung!C12:X12)</f>
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F10">
         <f>SUM(Fahrerwertung!C12:I12)</f>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <f>SUM(Fahrerwertung!C12:J12)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <f>SUM(Fahrerwertung!C12:K12)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I10">
         <f>SUM(Fahrerwertung!C12:L12)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <f>SUM(Fahrerwertung!C12:M12)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K10">
         <f>SUM(Fahrerwertung!C12:N12)</f>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L10">
         <f>SUM(Fahrerwertung!C12:N12)</f>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M10">
         <f>SUM(Fahrerwertung!C12:O12)</f>
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N10">
         <f>SUM(Fahrerwertung!C12:P12)</f>
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="O10">
         <f>SUM(Fahrerwertung!C12:Q12)</f>
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="P10">
         <f>SUM(Fahrerwertung!C12:R12)</f>
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="Q10">
         <f>SUM(Fahrerwertung!C12:S12)</f>
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="R10">
         <f>SUM(Fahrerwertung!C12:T12)</f>
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="S10">
         <f>SUM(Fahrerwertung!C12:U12)</f>
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="T10">
         <f>SUM(Fahrerwertung!C12:V12)</f>
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="U10">
         <f>SUM(Fahrerwertung!C12:W12)</f>
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="V10">
         <f>SUM(Fahrerwertung!C12:X12)</f>
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -13310,87 +14039,87 @@
       </c>
       <c r="B11">
         <f>Fahrerwertung!C13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <f>SUM(Fahrerwertung!C13:D13)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <f>SUM(Fahrerwertung!C13:F13)</f>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <f>SUM(Fahrerwertung!C13:X13)</f>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <f>SUM(Fahrerwertung!C13:I13)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <f>SUM(Fahrerwertung!C13:J13)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H11">
         <f>SUM(Fahrerwertung!C13:K13)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I11">
         <f>SUM(Fahrerwertung!C13:L13)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J11">
         <f>SUM(Fahrerwertung!C13:M13)</f>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <f>SUM(Fahrerwertung!C13:N13)</f>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="L11">
         <f>SUM(Fahrerwertung!C13:N13)</f>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M11">
         <f>SUM(Fahrerwertung!C13:O13)</f>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N11">
         <f>SUM(Fahrerwertung!C13:P13)</f>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="O11">
         <f>SUM(Fahrerwertung!C13:Q13)</f>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="P11">
         <f>SUM(Fahrerwertung!C13:R13)</f>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="Q11">
         <f>SUM(Fahrerwertung!C13:S13)</f>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="R11">
         <f>SUM(Fahrerwertung!C13:T13)</f>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="S11">
         <f>SUM(Fahrerwertung!C13:U13)</f>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="T11">
         <f>SUM(Fahrerwertung!C13:V13)</f>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="U11">
         <f>SUM(Fahrerwertung!C13:W13)</f>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="V11">
         <f>SUM(Fahrerwertung!C13:X13)</f>
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -13399,87 +14128,87 @@
       </c>
       <c r="B12">
         <f>Fahrerwertung!C14</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <f>SUM(Fahrerwertung!C14:D14)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f>SUM(Fahrerwertung!C14:F14)</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <f>SUM(Fahrerwertung!C14:X14)</f>
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F12">
         <f>SUM(Fahrerwertung!C14:I14)</f>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <f>SUM(Fahrerwertung!C14:J14)</f>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <f>SUM(Fahrerwertung!C14:K14)</f>
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I12">
         <f>SUM(Fahrerwertung!C14:L14)</f>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J12">
         <f>SUM(Fahrerwertung!C14:M14)</f>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K12">
         <f>SUM(Fahrerwertung!C14:N14)</f>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L12">
         <f>SUM(Fahrerwertung!C14:N14)</f>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M12">
         <f>SUM(Fahrerwertung!C14:O14)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <f>SUM(Fahrerwertung!C14:P14)</f>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="O12">
         <f>SUM(Fahrerwertung!C14:Q14)</f>
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="P12">
         <f>SUM(Fahrerwertung!C14:R14)</f>
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="Q12">
         <f>SUM(Fahrerwertung!C14:S14)</f>
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="R12">
         <f>SUM(Fahrerwertung!C14:T14)</f>
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="S12">
         <f>SUM(Fahrerwertung!C14:U14)</f>
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="T12">
         <f>SUM(Fahrerwertung!C14:V14)</f>
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="U12">
         <f>SUM(Fahrerwertung!C14:W14)</f>
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="V12">
         <f>SUM(Fahrerwertung!C14:X14)</f>
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -13488,87 +14217,87 @@
       </c>
       <c r="B13">
         <f>Fahrerwertung!C15</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <f>SUM(Fahrerwertung!C15:D15)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <f>SUM(Fahrerwertung!C15:F15)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <f>SUM(Fahrerwertung!C15:X15)</f>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F13">
         <f>SUM(Fahrerwertung!C15:I15)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G13">
         <f>SUM(Fahrerwertung!C15:J15)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H13">
         <f>SUM(Fahrerwertung!C15:K15)</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I13">
         <f>SUM(Fahrerwertung!C15:L15)</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J13">
         <f>SUM(Fahrerwertung!C15:M15)</f>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="K13">
         <f>SUM(Fahrerwertung!C15:N15)</f>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="L13">
         <f>SUM(Fahrerwertung!C15:N15)</f>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M13">
         <f>SUM(Fahrerwertung!C15:O15)</f>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <f>SUM(Fahrerwertung!C15:P15)</f>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="O13">
         <f>SUM(Fahrerwertung!C15:Q15)</f>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="P13">
         <f>SUM(Fahrerwertung!C15:R15)</f>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="Q13">
         <f>SUM(Fahrerwertung!C15:S15)</f>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="R13">
         <f>SUM(Fahrerwertung!C15:T15)</f>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="S13">
         <f>SUM(Fahrerwertung!C15:U15)</f>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="T13">
         <f>SUM(Fahrerwertung!C15:V15)</f>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="U13">
         <f>SUM(Fahrerwertung!C15:W15)</f>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="V13">
         <f>SUM(Fahrerwertung!C15:X15)</f>
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -13589,7 +14318,7 @@
       </c>
       <c r="E14">
         <f>SUM(Fahrerwertung!C16:X16)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <f>SUM(Fahrerwertung!C16:I16)</f>
@@ -13601,63 +14330,63 @@
       </c>
       <c r="H14">
         <f>SUM(Fahrerwertung!C16:K16)</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I14">
         <f>SUM(Fahrerwertung!C16:L16)</f>
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J14">
         <f>SUM(Fahrerwertung!C16:M16)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="K14">
         <f>SUM(Fahrerwertung!C16:N16)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="L14">
         <f>SUM(Fahrerwertung!C16:N16)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="M14">
         <f>SUM(Fahrerwertung!C16:O16)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N14">
         <f>SUM(Fahrerwertung!C16:P16)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="O14">
         <f>SUM(Fahrerwertung!C16:Q16)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="P14">
         <f>SUM(Fahrerwertung!C16:R16)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="Q14">
         <f>SUM(Fahrerwertung!C16:S16)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="R14">
         <f>SUM(Fahrerwertung!C16:T16)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="S14">
         <f>SUM(Fahrerwertung!C16:U16)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="T14">
         <f>SUM(Fahrerwertung!C16:V16)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="U14">
         <f>SUM(Fahrerwertung!C16:W16)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="V14">
         <f>SUM(Fahrerwertung!C16:X16)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -13670,83 +14399,83 @@
       </c>
       <c r="C15">
         <f>SUM(Fahrerwertung!C17:D17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <f>SUM(Fahrerwertung!C17:F17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <f>SUM(Fahrerwertung!C17:X17)</f>
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F15">
         <f>SUM(Fahrerwertung!C17:I17)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <f>SUM(Fahrerwertung!C17:J17)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <f>SUM(Fahrerwertung!C17:K17)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <f>SUM(Fahrerwertung!C17:L17)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15">
         <f>SUM(Fahrerwertung!C17:M17)</f>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K15">
         <f>SUM(Fahrerwertung!C17:N17)</f>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="L15">
         <f>SUM(Fahrerwertung!C17:N17)</f>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M15">
         <f>SUM(Fahrerwertung!C17:O17)</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <f>SUM(Fahrerwertung!C17:P17)</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="O15">
         <f>SUM(Fahrerwertung!C17:Q17)</f>
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="P15">
         <f>SUM(Fahrerwertung!C17:R17)</f>
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="Q15">
         <f>SUM(Fahrerwertung!C17:S17)</f>
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="R15">
         <f>SUM(Fahrerwertung!C17:T17)</f>
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="S15">
         <f>SUM(Fahrerwertung!C17:U17)</f>
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="T15">
         <f>SUM(Fahrerwertung!C17:V17)</f>
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="U15">
         <f>SUM(Fahrerwertung!C17:W17)</f>
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="V15">
         <f>SUM(Fahrerwertung!C17:X17)</f>
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -13767,7 +14496,7 @@
       </c>
       <c r="E16">
         <f>SUM(Fahrerwertung!C18:X18)</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F16">
         <f>SUM(Fahrerwertung!C18:I18)</f>
@@ -13779,63 +14508,63 @@
       </c>
       <c r="H16">
         <f>SUM(Fahrerwertung!C18:K18)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I16">
         <f>SUM(Fahrerwertung!C18:L18)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J16">
         <f>SUM(Fahrerwertung!C18:M18)</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K16">
         <f>SUM(Fahrerwertung!C18:N18)</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L16">
         <f>SUM(Fahrerwertung!C18:N18)</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M16">
         <f>SUM(Fahrerwertung!C18:O18)</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <f>SUM(Fahrerwertung!C18:P18)</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="O16">
         <f>SUM(Fahrerwertung!C18:Q18)</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="P16">
         <f>SUM(Fahrerwertung!C18:R18)</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="Q16">
         <f>SUM(Fahrerwertung!C18:S18)</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="R16">
         <f>SUM(Fahrerwertung!C18:T18)</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="S16">
         <f>SUM(Fahrerwertung!C18:U18)</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="T16">
         <f>SUM(Fahrerwertung!C18:V18)</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="U16">
         <f>SUM(Fahrerwertung!C18:W18)</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="V16">
         <f>SUM(Fahrerwertung!C18:X18)</f>
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -13844,87 +14573,87 @@
       </c>
       <c r="B17">
         <f>Fahrerwertung!C19</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <f>SUM(Fahrerwertung!C19:D19)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <f>SUM(Fahrerwertung!C19:F19)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <f>SUM(Fahrerwertung!C19:X19)</f>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F17">
         <f>SUM(Fahrerwertung!C19:I19)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G17">
         <f>SUM(Fahrerwertung!C19:J19)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H17">
         <f>SUM(Fahrerwertung!C19:K19)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I17">
         <f>SUM(Fahrerwertung!C19:L19)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J17">
         <f>SUM(Fahrerwertung!C19:M19)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K17">
         <f>SUM(Fahrerwertung!C19:N19)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L17">
         <f>SUM(Fahrerwertung!C19:N19)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M17">
         <f>SUM(Fahrerwertung!C19:O19)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N17">
         <f>SUM(Fahrerwertung!C19:P19)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="O17">
         <f>SUM(Fahrerwertung!C19:Q19)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="P17">
         <f>SUM(Fahrerwertung!C19:R19)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="Q17">
         <f>SUM(Fahrerwertung!C19:S19)</f>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="R17">
         <f>SUM(Fahrerwertung!C19:T19)</f>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="S17">
         <f>SUM(Fahrerwertung!C19:U19)</f>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="T17">
         <f>SUM(Fahrerwertung!C19:V19)</f>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="U17">
         <f>SUM(Fahrerwertung!C19:W19)</f>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="V17">
         <f>SUM(Fahrerwertung!C19:X19)</f>
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -13941,79 +14670,79 @@
       </c>
       <c r="D18">
         <f>SUM(Fahrerwertung!C20:F20)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <f>SUM(Fahrerwertung!C20:X20)</f>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F18">
         <f>SUM(Fahrerwertung!C20:I20)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <f>SUM(Fahrerwertung!C20:J20)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <f>SUM(Fahrerwertung!C20:K20)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I18">
         <f>SUM(Fahrerwertung!C20:L20)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J18">
         <f>SUM(Fahrerwertung!C20:M20)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K18">
         <f>SUM(Fahrerwertung!C20:N20)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L18">
         <f>SUM(Fahrerwertung!C20:N20)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M18">
         <f>SUM(Fahrerwertung!C20:O20)</f>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <f>SUM(Fahrerwertung!C20:P20)</f>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="O18">
         <f>SUM(Fahrerwertung!C20:Q20)</f>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="P18">
         <f>SUM(Fahrerwertung!C20:R20)</f>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="Q18">
         <f>SUM(Fahrerwertung!C20:S20)</f>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="R18">
         <f>SUM(Fahrerwertung!C20:T20)</f>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="S18">
         <f>SUM(Fahrerwertung!C20:U20)</f>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="T18">
         <f>SUM(Fahrerwertung!C20:V20)</f>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="U18">
         <f>SUM(Fahrerwertung!C20:W20)</f>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="V18">
         <f>SUM(Fahrerwertung!C20:X20)</f>
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -14026,83 +14755,83 @@
       </c>
       <c r="C19">
         <f>SUM(Fahrerwertung!C21:D21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <f>SUM(Fahrerwertung!C21:F21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <f>SUM(Fahrerwertung!C21:X21)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F19">
         <f>SUM(Fahrerwertung!C21:I21)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G19">
         <f>SUM(Fahrerwertung!C21:J21)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <f>SUM(Fahrerwertung!C21:K21)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I19">
         <f>SUM(Fahrerwertung!C21:L21)</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J19">
         <f>SUM(Fahrerwertung!C21:M21)</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="K19">
         <f>SUM(Fahrerwertung!C21:N21)</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="L19">
         <f>SUM(Fahrerwertung!C21:N21)</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="M19">
         <f>SUM(Fahrerwertung!C21:O21)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="N19">
         <f>SUM(Fahrerwertung!C21:P21)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O19">
         <f>SUM(Fahrerwertung!C21:Q21)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="P19">
         <f>SUM(Fahrerwertung!C21:R21)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="Q19">
         <f>SUM(Fahrerwertung!C21:S21)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="R19">
         <f>SUM(Fahrerwertung!C21:T21)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="S19">
         <f>SUM(Fahrerwertung!C21:U21)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="T19">
         <f>SUM(Fahrerwertung!C21:V21)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="U19">
         <f>SUM(Fahrerwertung!C21:W21)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="V19">
         <f>SUM(Fahrerwertung!C21:X21)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -14123,75 +14852,75 @@
       </c>
       <c r="E20">
         <f>SUM(Fahrerwertung!C22:X22)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F20">
         <f>SUM(Fahrerwertung!C22:I22)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <f>SUM(Fahrerwertung!C22:J22)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H20">
         <f>SUM(Fahrerwertung!C22:K22)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I20">
         <f>SUM(Fahrerwertung!C22:L22)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J20">
         <f>SUM(Fahrerwertung!C22:M22)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K20">
         <f>SUM(Fahrerwertung!C22:N22)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L20">
         <f>SUM(Fahrerwertung!C22:N22)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M20">
         <f>SUM(Fahrerwertung!C22:O22)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <f>SUM(Fahrerwertung!C22:P22)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O20">
         <f>SUM(Fahrerwertung!C22:Q22)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="P20">
         <f>SUM(Fahrerwertung!C22:R22)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="Q20">
         <f>SUM(Fahrerwertung!C22:S22)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="R20">
         <f>SUM(Fahrerwertung!C22:T22)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="S20">
         <f>SUM(Fahrerwertung!C22:U22)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="T20">
         <f>SUM(Fahrerwertung!C22:V22)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="U20">
         <f>SUM(Fahrerwertung!C22:W22)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="V20">
         <f>SUM(Fahrerwertung!C22:X22)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -14212,75 +14941,75 @@
       </c>
       <c r="E21">
         <f>SUM(Fahrerwertung!C23:X23)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <f>SUM(Fahrerwertung!C23:I23)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <f>SUM(Fahrerwertung!C23:J23)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <f>SUM(Fahrerwertung!C23:K23)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <f>SUM(Fahrerwertung!C23:L23)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21">
         <f>SUM(Fahrerwertung!C23:M23)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21">
         <f>SUM(Fahrerwertung!C23:N23)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <f>SUM(Fahrerwertung!C23:N23)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21">
         <f>SUM(Fahrerwertung!C23:O23)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N21">
         <f>SUM(Fahrerwertung!C23:P23)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O21">
         <f>SUM(Fahrerwertung!C23:Q23)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P21">
         <f>SUM(Fahrerwertung!C23:R23)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q21">
         <f>SUM(Fahrerwertung!C23:S23)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R21">
         <f>SUM(Fahrerwertung!C23:T23)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S21">
         <f>SUM(Fahrerwertung!C23:U23)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T21">
         <f>SUM(Fahrerwertung!C23:V23)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U21">
         <f>SUM(Fahrerwertung!C23:W23)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V21">
         <f>SUM(Fahrerwertung!C23:X23)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/seasons_excel/Formel1_2020_WM_1.xlsx
+++ b/seasons_excel/Formel1_2020_WM_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timkeller/git_repos/TK5/F1-virtualWC/seasons_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keltim01/git_repos/TK5/F1-virtualWC/seasons_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61EBDFF-5CE2-254E-8234-A56227C02597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A15814-B537-E643-88CE-CE6208673CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="460" windowWidth="33720" windowHeight="17540" xr2:uid="{15EF9A06-B4D9-F442-81AB-3E6205016DF9}"/>
+    <workbookView xWindow="21600" yWindow="13320" windowWidth="38400" windowHeight="21140" xr2:uid="{15EF9A06-B4D9-F442-81AB-3E6205016DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Fahrerwertung" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -494,7 +494,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -536,10 +536,10 @@
                   <c:v>Lorenz </c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Verstappen</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Hamilton</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Verstappen</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Räikkönen</c:v>
@@ -548,31 +548,31 @@
                   <c:v>Vettel</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Perez</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Norris</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>Leclerc</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Ocon</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Perez</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>Tim </c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Kyvat</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Leclerc</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>Ricciardo</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Albon </c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>Tim </c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Magnussen </c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Ricciardo</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Sainz</c:v>
@@ -596,61 +596,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>339</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>338</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>72</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>66</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>38</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>35</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>14</c:v>
@@ -735,7 +735,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CH"/>
+              <a:endParaRPr lang="en-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -773,7 +773,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2123038463"/>
@@ -855,7 +855,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CH"/>
+              <a:endParaRPr lang="en-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -887,7 +887,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2123030031"/>
@@ -935,7 +935,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1017,7 +1017,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1122,6 +1122,21 @@
                 <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1227,6 +1242,21 @@
                 <c:pt idx="16">
                   <c:v>25</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1238,23 +1268,12 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Fahrerwertung!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hamilton</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1265,302 +1284,29 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:val>
-            <c:numRef>
-              <c:f>Fahrerwertung!$C$7:$X$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B92C-A149-8EF0-2B5794035918}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Fahrerwertung!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Vettel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Fahrerwertung!$C$10:$X$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B92C-A149-8EF0-2B5794035918}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="19"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Fahrerwertung!$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Latifi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Fahrerwertung!$C$23:$X$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-B92C-A149-8EF0-2B5794035918}"/>
+              <c16:uniqueId val="{00000002-A527-4041-9453-85D77D3928C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1635,7 +1381,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CH"/>
+              <a:endParaRPr lang="en-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1673,7 +1419,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097072671"/>
@@ -1732,7 +1478,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2096991471"/>
@@ -1774,7 +1520,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1811,7 +1557,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1900,7 +1646,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1992,6 +1738,21 @@
                 <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2081,6 +1842,21 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2162,7 +1938,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CH"/>
+              <a:endParaRPr lang="en-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2200,7 +1976,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097072671"/>
@@ -2259,7 +2035,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2096991471"/>
@@ -2301,7 +2077,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2338,7 +2114,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2389,7 +2165,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2473,10 +2249,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>339</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>338</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2533,7 +2309,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2563,7 +2339,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2614,7 +2390,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2670,10 +2446,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>339</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>338</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2738,7 +2514,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2128509503"/>
@@ -2797,7 +2573,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2127763007"/>
@@ -2845,7 +2621,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2921,7 +2697,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3044,7 +2820,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>339</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>115</c:v>
@@ -3083,19 +2859,19 @@
                   <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>339</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>339</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>339</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>339</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>339</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3220,7 +2996,7 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>338</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>142</c:v>
@@ -3259,19 +3035,19 @@
                   <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>338</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>338</c:v>
+                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>338</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>338</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>338</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3396,7 +3172,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>197</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>45</c:v>
@@ -3435,19 +3211,19 @@
                   <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>197</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>197</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>197</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>197</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>197</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3563,67 +3339,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>66</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>98</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>108</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>120</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>120</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>120</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>120</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>120</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3739,67 +3515,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>104</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>104</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>110</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>110</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>110</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>110</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>110</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>110</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3924,7 +3700,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>49</c:v>
@@ -3963,19 +3739,19 @@
                   <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>89</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>89</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>89</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>89</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>89</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4102,7 +3878,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>38</c:v>
@@ -4141,19 +3917,19 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>72</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>72</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4271,67 +4047,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>64</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>66</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>66</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>66</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>66</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>66</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4449,67 +4225,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>59</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>59</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>59</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>59</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>59</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>59</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>59</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4627,67 +4403,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>54</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>54</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>54</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4805,67 +4581,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>39</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>51</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4983,67 +4759,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>48</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5162,67 +4938,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5341,28 +5117,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>22</c:v>
@@ -5374,34 +5150,34 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5520,67 +5296,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5699,67 +5475,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5887,7 +5663,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
@@ -5929,16 +5705,16 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6066,7 +5842,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13</c:v>
@@ -6108,16 +5884,16 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6244,7 +6020,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9</c:v>
@@ -6286,16 +6062,16 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6538,7 +6314,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="14512528"/>
@@ -6597,7 +6373,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2128050079"/>
@@ -6639,7 +6415,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6676,7 +6452,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10004,16 +9780,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>118533</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>194733</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10527,11 +10303,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F030A18C-8E60-B84C-94A5-3D61DA529893}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -10541,7 +10317,7 @@
     <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>50</v>
       </c>
@@ -10549,13 +10325,13 @@
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -10617,10 +10393,10 @@
         <v>36</v>
       </c>
       <c r="U3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" t="s">
         <v>37</v>
-      </c>
-      <c r="V3" t="s">
-        <v>38</v>
       </c>
       <c r="W3" t="s">
         <v>39</v>
@@ -10629,13 +10405,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <f>SUM(C4:X4)</f>
-        <v>339</v>
+        <v>460</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -10688,14 +10464,29 @@
       <c r="S4">
         <v>16</v>
       </c>
+      <c r="T4">
+        <v>26</v>
+      </c>
+      <c r="U4">
+        <v>18</v>
+      </c>
+      <c r="V4">
+        <v>26</v>
+      </c>
+      <c r="W4">
+        <v>26</v>
+      </c>
+      <c r="X4">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>66</v>
       </c>
       <c r="B5">
         <f>SUM(C5:X5)</f>
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="C5">
         <v>19</v>
@@ -10748,14 +10539,29 @@
       <c r="S5">
         <v>25</v>
       </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>25</v>
+      </c>
+      <c r="V5">
+        <v>12</v>
+      </c>
+      <c r="W5">
+        <v>18</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <f>SUM(C6:X6)</f>
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -10808,65 +10614,95 @@
       <c r="S6">
         <v>18</v>
       </c>
+      <c r="T6">
+        <v>18</v>
+      </c>
+      <c r="U6">
+        <v>16</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:32">
-      <c r="A7" s="1" t="s">
-        <v>61</v>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
         <f>SUM(C7:X7)</f>
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>15</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7">
+        <v>15</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
         <v>18</v>
       </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>12</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>12</v>
-      </c>
-      <c r="Q7">
-        <v>8</v>
-      </c>
-      <c r="R7">
-        <v>10</v>
-      </c>
-      <c r="S7">
-        <v>12</v>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>18</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -10878,64 +10714,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
-      <c r="A8" s="23" t="s">
-        <v>7</v>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B8">
         <f>SUM(C8:X8)</f>
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="G8">
         <v>15</v>
       </c>
-      <c r="E8">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>12</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>12</v>
+      </c>
+      <c r="T8">
+        <v>10</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>10</v>
+      </c>
+      <c r="W8">
         <v>15</v>
       </c>
-      <c r="F8">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>18</v>
-      </c>
-      <c r="H8">
-        <v>15</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>8</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>8</v>
-      </c>
-      <c r="O8">
-        <v>4</v>
-      </c>
-      <c r="P8">
-        <v>4</v>
-      </c>
-      <c r="Q8">
+      <c r="X8">
         <v>2</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>6</v>
       </c>
       <c r="AE8" s="1" t="s">
         <v>61</v>
@@ -10944,13 +10795,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B9">
         <f>SUM(C9:X9)</f>
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -11003,6 +10854,21 @@
       <c r="S9">
         <v>10</v>
       </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>10</v>
+      </c>
+      <c r="X9">
+        <v>8</v>
+      </c>
       <c r="AD9">
         <v>2</v>
       </c>
@@ -11013,13 +10879,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B10">
         <f>SUM(C10:X10)</f>
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -11072,6 +10938,21 @@
       <c r="S10">
         <v>1</v>
       </c>
+      <c r="T10">
+        <v>12</v>
+      </c>
+      <c r="U10">
+        <v>12</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>12</v>
+      </c>
       <c r="AE10" s="2" t="s">
         <v>59</v>
       </c>
@@ -11079,37 +10960,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
-      <c r="A11" s="3" t="s">
-        <v>65</v>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B11">
         <f>SUM(C11:X11)</f>
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -11118,25 +10999,40 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>8</v>
+      </c>
+      <c r="V11">
+        <v>15</v>
+      </c>
+      <c r="W11">
         <v>6</v>
       </c>
-      <c r="Q11">
+      <c r="X11">
         <v>1</v>
-      </c>
-      <c r="R11">
-        <v>15</v>
-      </c>
-      <c r="S11">
-        <v>2</v>
       </c>
       <c r="AD11">
         <v>3</v>
@@ -11148,63 +11044,78 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
-      <c r="A12" s="4" t="s">
-        <v>63</v>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B12">
         <f>SUM(C12:X12)</f>
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>12</v>
       </c>
-      <c r="D12">
+      <c r="I12">
         <v>10</v>
       </c>
-      <c r="E12">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+      <c r="Q12">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="R12">
+        <v>15</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
         <v>8</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>8</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>4</v>
-      </c>
-      <c r="O12">
-        <v>6</v>
-      </c>
-      <c r="P12">
-        <v>8</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
         <v>0</v>
       </c>
       <c r="AE12" s="6" t="s">
@@ -11214,64 +11125,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
-      <c r="A13" s="9" t="s">
-        <v>12</v>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B13">
         <f>SUM(C13:X13)</f>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>6</v>
       </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>8</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
       <c r="R13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>6</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>6</v>
       </c>
       <c r="AD13">
         <v>4</v>
@@ -11283,64 +11209,79 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
-      <c r="A14" s="22" t="s">
-        <v>18</v>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B14">
         <f>SUM(C14:X14)</f>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
         <v>6</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="P14">
         <v>8</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>10</v>
-      </c>
-      <c r="P14">
-        <v>10</v>
-      </c>
       <c r="Q14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
       </c>
       <c r="AE14" s="5" t="s">
         <v>10</v>
@@ -11349,64 +11290,79 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B15">
         <f>SUM(C15:X15)</f>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>12</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
         <v>8</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="M15">
-        <v>4</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>6</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
+      <c r="X15">
+        <v>15</v>
       </c>
       <c r="AD15">
         <v>5</v>
@@ -11418,63 +11374,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
-      <c r="A16" s="23" t="s">
-        <v>15</v>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="B16">
         <f>SUM(C16:X16)</f>
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>8</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="Q16">
         <v>4</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>6</v>
-      </c>
-      <c r="K16">
-        <v>12</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <v>6</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
+        <v>8</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
         <v>0</v>
       </c>
       <c r="AE16" s="9" t="s">
@@ -11484,16 +11455,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B17">
         <f>SUM(C17:X17)</f>
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -11502,16 +11473,16 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -11520,27 +11491,42 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
         <v>10</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>12</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
+      <c r="V17">
+        <v>8</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17">
         <v>0</v>
       </c>
       <c r="AD17">
@@ -11553,49 +11539,49 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
-      <c r="A18" s="5" t="s">
-        <v>64</v>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="B18">
         <f>SUM(C18:X18)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>12</v>
+      </c>
+      <c r="L18">
         <v>2</v>
       </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
+      <c r="M18">
         <v>6</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
       <c r="N18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -11607,10 +11593,25 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>4</v>
       </c>
       <c r="AE18" s="3" t="s">
         <v>60</v>
@@ -11619,50 +11620,50 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
-      <c r="A19" s="4" t="s">
-        <v>9</v>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B19">
         <f>SUM(C19:X19)</f>
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>6</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
         <v>6</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>8</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
       <c r="O19">
         <v>0</v>
       </c>
@@ -11673,10 +11674,25 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S19">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>10</v>
       </c>
       <c r="AD19">
         <v>7</v>
@@ -11688,13 +11704,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B20">
         <f>SUM(C20:X20)</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -11747,6 +11763,21 @@
       <c r="S20">
         <v>0</v>
       </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>12</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
       <c r="AE20" s="4" t="s">
         <v>9</v>
       </c>
@@ -11754,13 +11785,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21">
         <f>SUM(C21:X21)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -11813,6 +11844,21 @@
       <c r="S21">
         <v>0</v>
       </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>4</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
       <c r="AD21">
         <v>8</v>
       </c>
@@ -11823,13 +11869,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B22">
         <f>SUM(C22:X22)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -11882,6 +11928,21 @@
       <c r="S22">
         <v>0</v>
       </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>4</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
       <c r="AE22" s="8" t="s">
         <v>14</v>
       </c>
@@ -11889,7 +11950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -11948,6 +12009,21 @@
       <c r="S23">
         <v>0</v>
       </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
       <c r="AD23">
         <v>9</v>
       </c>
@@ -11958,7 +12034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AE24" s="7" t="s">
         <v>8</v>
       </c>
@@ -11966,7 +12042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AD25">
         <v>10</v>
       </c>
@@ -11977,7 +12053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AE26" t="s">
         <v>16</v>
       </c>
@@ -12010,12 +12086,12 @@
       <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16" customHeight="1">
+    <row r="1" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>51</v>
       </c>
@@ -12042,7 +12118,7 @@
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="16" customHeight="1">
+    <row r="2" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -12067,7 +12143,7 @@
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -12138,7 +12214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>55</v>
       </c>
@@ -12221,7 +12297,7 @@
       </c>
       <c r="W4" s="10"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>56</v>
       </c>
@@ -12296,7 +12372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>53</v>
       </c>
@@ -12366,7 +12442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
@@ -12438,7 +12514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
@@ -12513,7 +12589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>43</v>
       </c>
@@ -12577,7 +12653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>44</v>
       </c>
@@ -12636,7 +12712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>42</v>
       </c>
@@ -12696,7 +12772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>45</v>
       </c>
@@ -12734,7 +12810,7 @@
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>46</v>
       </c>
@@ -12768,7 +12844,7 @@
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -12793,7 +12869,7 @@
       <c r="V14" s="10"/>
       <c r="W14" s="10"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -12818,7 +12894,7 @@
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -12843,7 +12919,7 @@
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -12868,7 +12944,7 @@
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -12893,7 +12969,7 @@
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -12918,7 +12994,7 @@
       <c r="V19" s="10"/>
       <c r="W19" s="10"/>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -12943,7 +13019,7 @@
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -12968,7 +13044,7 @@
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -12993,7 +13069,7 @@
       <c r="V22" s="10"/>
       <c r="W22" s="10"/>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -13018,7 +13094,7 @@
       <c r="V23" s="10"/>
       <c r="W23" s="10"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
     </row>
   </sheetData>
@@ -13045,12 +13121,12 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -13058,7 +13134,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13066,7 +13142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13074,7 +13150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13082,7 +13158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13090,7 +13166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13098,7 +13174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13106,7 +13182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13114,7 +13190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13122,7 +13198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13130,7 +13206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13138,7 +13214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -13159,12 +13235,12 @@
       <selection activeCell="V21" sqref="B2:V21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -13232,7 +13308,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -13250,7 +13326,7 @@
       </c>
       <c r="E2">
         <f>SUM(Fahrerwertung!C4:X4)</f>
-        <v>339</v>
+        <v>460</v>
       </c>
       <c r="F2">
         <f>SUM(Fahrerwertung!C4:I4)</f>
@@ -13302,26 +13378,26 @@
       </c>
       <c r="R2">
         <f>SUM(Fahrerwertung!C4:T4)</f>
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="S2">
-        <f>SUM(Fahrerwertung!C4:U4)</f>
-        <v>339</v>
+        <f>SUM(Fahrerwertung!C4:V4)</f>
+        <v>409</v>
       </c>
       <c r="T2">
-        <f>SUM(Fahrerwertung!C4:V4)</f>
-        <v>339</v>
+        <f>SUM(Fahrerwertung!C4:X4)</f>
+        <v>460</v>
       </c>
       <c r="U2">
         <f>SUM(Fahrerwertung!C4:W4)</f>
-        <v>339</v>
+        <v>435</v>
       </c>
       <c r="V2">
         <f>SUM(Fahrerwertung!C4:X4)</f>
-        <v>339</v>
+        <v>460</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -13339,7 +13415,7 @@
       </c>
       <c r="E3">
         <f>SUM(Fahrerwertung!C5:X5)</f>
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="F3">
         <f>SUM(Fahrerwertung!C5:I5)</f>
@@ -13391,26 +13467,26 @@
       </c>
       <c r="R3">
         <f>SUM(Fahrerwertung!C5:T5)</f>
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="S3">
-        <f>SUM(Fahrerwertung!C5:U5)</f>
-        <v>338</v>
+        <f>SUM(Fahrerwertung!C5:V5)</f>
+        <v>379</v>
       </c>
       <c r="T3">
-        <f>SUM(Fahrerwertung!C5:V5)</f>
-        <v>338</v>
+        <f>SUM(Fahrerwertung!C5:X5)</f>
+        <v>397</v>
       </c>
       <c r="U3">
         <f>SUM(Fahrerwertung!C5:W5)</f>
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="V3">
         <f>SUM(Fahrerwertung!C5:X5)</f>
-        <v>338</v>
+        <v>397</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -13428,7 +13504,7 @@
       </c>
       <c r="E4">
         <f>SUM(Fahrerwertung!C6:X6)</f>
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="F4">
         <f>SUM(Fahrerwertung!C6:I6)</f>
@@ -13480,204 +13556,204 @@
       </c>
       <c r="R4">
         <f>SUM(Fahrerwertung!C6:T6)</f>
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="S4">
-        <f>SUM(Fahrerwertung!C6:U6)</f>
-        <v>197</v>
+        <f>SUM(Fahrerwertung!C6:V6)</f>
+        <v>231</v>
       </c>
       <c r="T4">
-        <f>SUM(Fahrerwertung!C6:V6)</f>
-        <v>197</v>
+        <f>SUM(Fahrerwertung!C6:X6)</f>
+        <v>231</v>
       </c>
       <c r="U4">
         <f>SUM(Fahrerwertung!C6:W6)</f>
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="V4">
         <f>SUM(Fahrerwertung!C6:X6)</f>
-        <v>197</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <f>Fahrerwertung!C7</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f>SUM(Fahrerwertung!C7:D7)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <f>SUM(Fahrerwertung!C7:F7)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <f>SUM(Fahrerwertung!C7:X7)</f>
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="F5">
         <f>SUM(Fahrerwertung!C7:I7)</f>
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="G5">
         <f>SUM(Fahrerwertung!C7:J7)</f>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H5">
         <f>SUM(Fahrerwertung!C7:K7)</f>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I5">
         <f>SUM(Fahrerwertung!C7:L7)</f>
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="J5">
         <f>SUM(Fahrerwertung!C7:M7)</f>
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="K5">
         <f>SUM(Fahrerwertung!C7:N7)</f>
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="L5">
         <f>SUM(Fahrerwertung!C7:N7)</f>
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="M5">
         <f>SUM(Fahrerwertung!C7:O7)</f>
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="N5">
         <f>SUM(Fahrerwertung!C7:P7)</f>
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="O5">
         <f>SUM(Fahrerwertung!C7:Q7)</f>
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P5">
         <f>SUM(Fahrerwertung!C7:R7)</f>
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q5">
         <f>SUM(Fahrerwertung!C7:S7)</f>
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="R5">
         <f>SUM(Fahrerwertung!C7:T7)</f>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="S5">
-        <f>SUM(Fahrerwertung!C7:U7)</f>
-        <v>120</v>
+        <f>SUM(Fahrerwertung!C7:V7)</f>
+        <v>143</v>
       </c>
       <c r="T5">
-        <f>SUM(Fahrerwertung!C7:V7)</f>
-        <v>120</v>
+        <f>SUM(Fahrerwertung!C7:X7)</f>
+        <v>161</v>
       </c>
       <c r="U5">
         <f>SUM(Fahrerwertung!C7:W7)</f>
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="V5">
         <f>SUM(Fahrerwertung!C7:X7)</f>
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <f>Fahrerwertung!C8</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <f>SUM(Fahrerwertung!C8:D8)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <f>SUM(Fahrerwertung!C8:F8)</f>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <f>SUM(Fahrerwertung!C8:X8)</f>
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="F6">
         <f>SUM(Fahrerwertung!C8:I8)</f>
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="G6">
         <f>SUM(Fahrerwertung!C8:J8)</f>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H6">
         <f>SUM(Fahrerwertung!C8:K8)</f>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I6">
         <f>SUM(Fahrerwertung!C8:L8)</f>
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="J6">
         <f>SUM(Fahrerwertung!C8:M8)</f>
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="K6">
         <f>SUM(Fahrerwertung!C8:N8)</f>
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="L6">
         <f>SUM(Fahrerwertung!C8:N8)</f>
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M6">
         <f>SUM(Fahrerwertung!C8:O8)</f>
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="N6">
         <f>SUM(Fahrerwertung!C8:P8)</f>
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="O6">
         <f>SUM(Fahrerwertung!C8:Q8)</f>
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P6">
         <f>SUM(Fahrerwertung!C8:R8)</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <f>SUM(Fahrerwertung!C8:S8)</f>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="R6">
         <f>SUM(Fahrerwertung!C8:T8)</f>
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="S6">
-        <f>SUM(Fahrerwertung!C8:U8)</f>
-        <v>110</v>
+        <f>SUM(Fahrerwertung!C8:V8)</f>
+        <v>140</v>
       </c>
       <c r="T6">
-        <f>SUM(Fahrerwertung!C8:V8)</f>
-        <v>110</v>
+        <f>SUM(Fahrerwertung!C8:X8)</f>
+        <v>157</v>
       </c>
       <c r="U6">
         <f>SUM(Fahrerwertung!C8:W8)</f>
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="V6">
         <f>SUM(Fahrerwertung!C8:X8)</f>
-        <v>110</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -13695,7 +13771,7 @@
       </c>
       <c r="E7">
         <f>SUM(Fahrerwertung!C9:X9)</f>
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F7">
         <f>SUM(Fahrerwertung!C9:I9)</f>
@@ -13747,26 +13823,26 @@
       </c>
       <c r="R7">
         <f>SUM(Fahrerwertung!C9:T9)</f>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="S7">
-        <f>SUM(Fahrerwertung!C9:U9)</f>
-        <v>89</v>
+        <f>SUM(Fahrerwertung!C9:V9)</f>
+        <v>101</v>
       </c>
       <c r="T7">
-        <f>SUM(Fahrerwertung!C9:V9)</f>
-        <v>89</v>
+        <f>SUM(Fahrerwertung!C9:X9)</f>
+        <v>119</v>
       </c>
       <c r="U7">
         <f>SUM(Fahrerwertung!C9:W9)</f>
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="V7">
         <f>SUM(Fahrerwertung!C9:X9)</f>
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -13784,7 +13860,7 @@
       </c>
       <c r="E8">
         <f>SUM(Fahrerwertung!C10:X10)</f>
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="F8">
         <f>SUM(Fahrerwertung!C10:I10)</f>
@@ -13836,594 +13912,594 @@
       </c>
       <c r="R8">
         <f>SUM(Fahrerwertung!C10:T10)</f>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="S8">
-        <f>SUM(Fahrerwertung!C10:U10)</f>
-        <v>72</v>
+        <f>SUM(Fahrerwertung!C10:V10)</f>
+        <v>98</v>
       </c>
       <c r="T8">
-        <f>SUM(Fahrerwertung!C10:V10)</f>
-        <v>72</v>
+        <f>SUM(Fahrerwertung!C10:X10)</f>
+        <v>110</v>
       </c>
       <c r="U8">
         <f>SUM(Fahrerwertung!C10:W10)</f>
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="V8">
         <f>SUM(Fahrerwertung!C10:X10)</f>
-        <v>72</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
         <f>Fahrerwertung!C11</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <f>SUM(Fahrerwertung!C11:D11)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <f>SUM(Fahrerwertung!C11:F11)</f>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <f>SUM(Fahrerwertung!C11:X11)</f>
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="F9">
         <f>SUM(Fahrerwertung!C11:I11)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G9">
         <f>SUM(Fahrerwertung!C11:J11)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <f>SUM(Fahrerwertung!C11:K11)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <f>SUM(Fahrerwertung!C11:L11)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J9">
         <f>SUM(Fahrerwertung!C11:M11)</f>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <f>SUM(Fahrerwertung!C11:N11)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L9">
         <f>SUM(Fahrerwertung!C11:N11)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M9">
         <f>SUM(Fahrerwertung!C11:O11)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N9">
         <f>SUM(Fahrerwertung!C11:P11)</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O9">
         <f>SUM(Fahrerwertung!C11:Q11)</f>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P9">
         <f>SUM(Fahrerwertung!C11:R11)</f>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="Q9">
         <f>SUM(Fahrerwertung!C11:S11)</f>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="R9">
         <f>SUM(Fahrerwertung!C11:T11)</f>
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="S9">
-        <f>SUM(Fahrerwertung!C11:U11)</f>
-        <v>66</v>
+        <f>SUM(Fahrerwertung!C11:V11)</f>
+        <v>78</v>
       </c>
       <c r="T9">
-        <f>SUM(Fahrerwertung!C11:V11)</f>
-        <v>66</v>
+        <f>SUM(Fahrerwertung!C11:X11)</f>
+        <v>85</v>
       </c>
       <c r="U9">
         <f>SUM(Fahrerwertung!C11:W11)</f>
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="V9">
         <f>SUM(Fahrerwertung!C11:X11)</f>
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <f>Fahrerwertung!C12</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <f>SUM(Fahrerwertung!C12:D12)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <f>SUM(Fahrerwertung!C12:F12)</f>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <f>SUM(Fahrerwertung!C12:X12)</f>
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F10">
         <f>SUM(Fahrerwertung!C12:I12)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <f>SUM(Fahrerwertung!C12:J12)</f>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <f>SUM(Fahrerwertung!C12:K12)</f>
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I10">
         <f>SUM(Fahrerwertung!C12:L12)</f>
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J10">
         <f>SUM(Fahrerwertung!C12:M12)</f>
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K10">
         <f>SUM(Fahrerwertung!C12:N12)</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L10">
         <f>SUM(Fahrerwertung!C12:N12)</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M10">
         <f>SUM(Fahrerwertung!C12:O12)</f>
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <f>SUM(Fahrerwertung!C12:P12)</f>
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="O10">
         <f>SUM(Fahrerwertung!C12:Q12)</f>
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="P10">
         <f>SUM(Fahrerwertung!C12:R12)</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="Q10">
         <f>SUM(Fahrerwertung!C12:S12)</f>
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="R10">
         <f>SUM(Fahrerwertung!C12:T12)</f>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="S10">
-        <f>SUM(Fahrerwertung!C12:U12)</f>
-        <v>59</v>
+        <f>SUM(Fahrerwertung!C12:V12)</f>
+        <v>74</v>
       </c>
       <c r="T10">
-        <f>SUM(Fahrerwertung!C12:V12)</f>
-        <v>59</v>
+        <f>SUM(Fahrerwertung!C12:X12)</f>
+        <v>75</v>
       </c>
       <c r="U10">
         <f>SUM(Fahrerwertung!C12:W12)</f>
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="V10">
         <f>SUM(Fahrerwertung!C12:X12)</f>
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <f>Fahrerwertung!C13</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <f>SUM(Fahrerwertung!C13:D13)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <f>SUM(Fahrerwertung!C13:F13)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <f>SUM(Fahrerwertung!C13:X13)</f>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F11">
         <f>SUM(Fahrerwertung!C13:I13)</f>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G11">
         <f>SUM(Fahrerwertung!C13:J13)</f>
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H11">
         <f>SUM(Fahrerwertung!C13:K13)</f>
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I11">
         <f>SUM(Fahrerwertung!C13:L13)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11">
         <f>SUM(Fahrerwertung!C13:M13)</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <f>SUM(Fahrerwertung!C13:N13)</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L11">
         <f>SUM(Fahrerwertung!C13:N13)</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M11">
         <f>SUM(Fahrerwertung!C13:O13)</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <f>SUM(Fahrerwertung!C13:P13)</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O11">
         <f>SUM(Fahrerwertung!C13:Q13)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P11">
         <f>SUM(Fahrerwertung!C13:R13)</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q11">
         <f>SUM(Fahrerwertung!C13:S13)</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="R11">
         <f>SUM(Fahrerwertung!C13:T13)</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="S11">
-        <f>SUM(Fahrerwertung!C13:U13)</f>
-        <v>54</v>
+        <f>SUM(Fahrerwertung!C13:V13)</f>
+        <v>58</v>
       </c>
       <c r="T11">
-        <f>SUM(Fahrerwertung!C13:V13)</f>
-        <v>54</v>
+        <f>SUM(Fahrerwertung!C13:X13)</f>
+        <v>64</v>
       </c>
       <c r="U11">
         <f>SUM(Fahrerwertung!C13:W13)</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="V11">
         <f>SUM(Fahrerwertung!C13:X13)</f>
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B12">
         <f>Fahrerwertung!C14</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <f>SUM(Fahrerwertung!C14:D14)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <f>SUM(Fahrerwertung!C14:F14)</f>
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <f>SUM(Fahrerwertung!C14:X14)</f>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F12">
         <f>SUM(Fahrerwertung!C14:I14)</f>
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <f>SUM(Fahrerwertung!C14:J14)</f>
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="H12">
         <f>SUM(Fahrerwertung!C14:K14)</f>
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I12">
         <f>SUM(Fahrerwertung!C14:L14)</f>
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <f>SUM(Fahrerwertung!C14:M14)</f>
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K12">
         <f>SUM(Fahrerwertung!C14:N14)</f>
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="L12">
         <f>SUM(Fahrerwertung!C14:N14)</f>
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="M12">
         <f>SUM(Fahrerwertung!C14:O14)</f>
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="N12">
         <f>SUM(Fahrerwertung!C14:P14)</f>
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="O12">
         <f>SUM(Fahrerwertung!C14:Q14)</f>
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="P12">
         <f>SUM(Fahrerwertung!C14:R14)</f>
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="Q12">
         <f>SUM(Fahrerwertung!C14:S14)</f>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R12">
         <f>SUM(Fahrerwertung!C14:T14)</f>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="S12">
-        <f>SUM(Fahrerwertung!C14:U14)</f>
-        <v>51</v>
+        <f>SUM(Fahrerwertung!C14:V14)</f>
+        <v>59</v>
       </c>
       <c r="T12">
-        <f>SUM(Fahrerwertung!C14:V14)</f>
-        <v>51</v>
+        <f>SUM(Fahrerwertung!C14:X14)</f>
+        <v>59</v>
       </c>
       <c r="U12">
         <f>SUM(Fahrerwertung!C14:W14)</f>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="V12">
         <f>SUM(Fahrerwertung!C14:X14)</f>
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B13">
         <f>Fahrerwertung!C15</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <f>SUM(Fahrerwertung!C15:D15)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <f>SUM(Fahrerwertung!C15:F15)</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <f>SUM(Fahrerwertung!C15:X15)</f>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F13">
         <f>SUM(Fahrerwertung!C15:I15)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <f>SUM(Fahrerwertung!C15:J15)</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <f>SUM(Fahrerwertung!C15:K15)</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <f>SUM(Fahrerwertung!C15:L15)</f>
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="J13">
         <f>SUM(Fahrerwertung!C15:M15)</f>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="K13">
         <f>SUM(Fahrerwertung!C15:N15)</f>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L13">
         <f>SUM(Fahrerwertung!C15:N15)</f>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M13">
         <f>SUM(Fahrerwertung!C15:O15)</f>
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <f>SUM(Fahrerwertung!C15:P15)</f>
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="O13">
         <f>SUM(Fahrerwertung!C15:Q15)</f>
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="P13">
         <f>SUM(Fahrerwertung!C15:R15)</f>
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="Q13">
         <f>SUM(Fahrerwertung!C15:S15)</f>
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="R13">
         <f>SUM(Fahrerwertung!C15:T15)</f>
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="S13">
-        <f>SUM(Fahrerwertung!C15:U15)</f>
-        <v>48</v>
+        <f>SUM(Fahrerwertung!C15:V15)</f>
+        <v>35</v>
       </c>
       <c r="T13">
-        <f>SUM(Fahrerwertung!C15:V15)</f>
-        <v>48</v>
+        <f>SUM(Fahrerwertung!C15:X15)</f>
+        <v>58</v>
       </c>
       <c r="U13">
         <f>SUM(Fahrerwertung!C15:W15)</f>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="V13">
         <f>SUM(Fahrerwertung!C15:X15)</f>
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B14">
         <f>Fahrerwertung!C16</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <f>SUM(Fahrerwertung!C16:D16)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <f>SUM(Fahrerwertung!C16:F16)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <f>SUM(Fahrerwertung!C16:X16)</f>
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F14">
         <f>SUM(Fahrerwertung!C16:I16)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <f>SUM(Fahrerwertung!C16:J16)</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <f>SUM(Fahrerwertung!C16:K16)</f>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I14">
         <f>SUM(Fahrerwertung!C16:L16)</f>
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J14">
         <f>SUM(Fahrerwertung!C16:M16)</f>
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K14">
         <f>SUM(Fahrerwertung!C16:N16)</f>
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L14">
         <f>SUM(Fahrerwertung!C16:N16)</f>
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M14">
         <f>SUM(Fahrerwertung!C16:O16)</f>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <f>SUM(Fahrerwertung!C16:P16)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14">
         <f>SUM(Fahrerwertung!C16:Q16)</f>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P14">
         <f>SUM(Fahrerwertung!C16:R16)</f>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q14">
         <f>SUM(Fahrerwertung!C16:S16)</f>
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="R14">
         <f>SUM(Fahrerwertung!C16:T16)</f>
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="S14">
-        <f>SUM(Fahrerwertung!C16:U16)</f>
-        <v>38</v>
+        <f>SUM(Fahrerwertung!C16:V16)</f>
+        <v>51</v>
       </c>
       <c r="T14">
-        <f>SUM(Fahrerwertung!C16:V16)</f>
-        <v>38</v>
+        <f>SUM(Fahrerwertung!C16:X16)</f>
+        <v>51</v>
       </c>
       <c r="U14">
         <f>SUM(Fahrerwertung!C16:W16)</f>
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="V14">
         <f>SUM(Fahrerwertung!C16:X16)</f>
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B15">
         <f>Fahrerwertung!C17</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <f>SUM(Fahrerwertung!C17:D17)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <f>SUM(Fahrerwertung!C17:F17)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <f>SUM(Fahrerwertung!C17:X17)</f>
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F15">
         <f>SUM(Fahrerwertung!C17:I17)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G15">
         <f>SUM(Fahrerwertung!C17:J17)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H15">
         <f>SUM(Fahrerwertung!C17:K17)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I15">
         <f>SUM(Fahrerwertung!C17:L17)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J15">
         <f>SUM(Fahrerwertung!C17:M17)</f>
@@ -14439,64 +14515,64 @@
       </c>
       <c r="M15">
         <f>SUM(Fahrerwertung!C17:O17)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <f>SUM(Fahrerwertung!C17:P17)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O15">
         <f>SUM(Fahrerwertung!C17:Q17)</f>
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="P15">
         <f>SUM(Fahrerwertung!C17:R17)</f>
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="Q15">
         <f>SUM(Fahrerwertung!C17:S17)</f>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="R15">
         <f>SUM(Fahrerwertung!C17:T17)</f>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="S15">
-        <f>SUM(Fahrerwertung!C17:U17)</f>
-        <v>35</v>
+        <f>SUM(Fahrerwertung!C17:V17)</f>
+        <v>44</v>
       </c>
       <c r="T15">
-        <f>SUM(Fahrerwertung!C17:V17)</f>
-        <v>35</v>
+        <f>SUM(Fahrerwertung!C17:X17)</f>
+        <v>46</v>
       </c>
       <c r="U15">
         <f>SUM(Fahrerwertung!C17:W17)</f>
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="V15">
         <f>SUM(Fahrerwertung!C17:X17)</f>
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B16">
         <f>Fahrerwertung!C18</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <f>SUM(Fahrerwertung!C18:D18)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <f>SUM(Fahrerwertung!C18:F18)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <f>SUM(Fahrerwertung!C18:X18)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F16">
         <f>SUM(Fahrerwertung!C18:I18)</f>
@@ -14504,159 +14580,159 @@
       </c>
       <c r="G16">
         <f>SUM(Fahrerwertung!C18:J18)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H16">
         <f>SUM(Fahrerwertung!C18:K18)</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I16">
         <f>SUM(Fahrerwertung!C18:L18)</f>
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J16">
         <f>SUM(Fahrerwertung!C18:M18)</f>
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K16">
         <f>SUM(Fahrerwertung!C18:N18)</f>
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L16">
         <f>SUM(Fahrerwertung!C18:N18)</f>
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M16">
         <f>SUM(Fahrerwertung!C18:O18)</f>
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N16">
         <f>SUM(Fahrerwertung!C18:P18)</f>
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="O16">
         <f>SUM(Fahrerwertung!C18:Q18)</f>
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="P16">
         <f>SUM(Fahrerwertung!C18:R18)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Q16">
         <f>SUM(Fahrerwertung!C18:S18)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="R16">
         <f>SUM(Fahrerwertung!C18:T18)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="S16">
-        <f>SUM(Fahrerwertung!C18:U18)</f>
-        <v>31</v>
+        <f>SUM(Fahrerwertung!C18:V18)</f>
+        <v>38</v>
       </c>
       <c r="T16">
-        <f>SUM(Fahrerwertung!C18:V18)</f>
-        <v>31</v>
+        <f>SUM(Fahrerwertung!C18:X18)</f>
+        <v>42</v>
       </c>
       <c r="U16">
         <f>SUM(Fahrerwertung!C18:W18)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="V16">
         <f>SUM(Fahrerwertung!C18:X18)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B17">
         <f>Fahrerwertung!C19</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <f>SUM(Fahrerwertung!C19:D19)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <f>SUM(Fahrerwertung!C19:F19)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <f>SUM(Fahrerwertung!C19:X19)</f>
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F17">
         <f>SUM(Fahrerwertung!C19:I19)</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <f>SUM(Fahrerwertung!C19:J19)</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H17">
         <f>SUM(Fahrerwertung!C19:K19)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I17">
         <f>SUM(Fahrerwertung!C19:L19)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J17">
         <f>SUM(Fahrerwertung!C19:M19)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K17">
         <f>SUM(Fahrerwertung!C19:N19)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L17">
         <f>SUM(Fahrerwertung!C19:N19)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M17">
         <f>SUM(Fahrerwertung!C19:O19)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <f>SUM(Fahrerwertung!C19:P19)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O17">
         <f>SUM(Fahrerwertung!C19:Q19)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P17">
         <f>SUM(Fahrerwertung!C19:R19)</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Q17">
         <f>SUM(Fahrerwertung!C19:S19)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R17">
         <f>SUM(Fahrerwertung!C19:T19)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="S17">
-        <f>SUM(Fahrerwertung!C19:U19)</f>
-        <v>26</v>
+        <f>SUM(Fahrerwertung!C19:V19)</f>
+        <v>31</v>
       </c>
       <c r="T17">
-        <f>SUM(Fahrerwertung!C19:V19)</f>
-        <v>26</v>
+        <f>SUM(Fahrerwertung!C19:X19)</f>
+        <v>41</v>
       </c>
       <c r="U17">
         <f>SUM(Fahrerwertung!C19:W19)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="V17">
         <f>SUM(Fahrerwertung!C19:X19)</f>
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -14674,7 +14750,7 @@
       </c>
       <c r="E18">
         <f>SUM(Fahrerwertung!C20:X20)</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F18">
         <f>SUM(Fahrerwertung!C20:I20)</f>
@@ -14729,23 +14805,23 @@
         <v>23</v>
       </c>
       <c r="S18">
-        <f>SUM(Fahrerwertung!C20:U20)</f>
-        <v>23</v>
+        <f>SUM(Fahrerwertung!C20:V20)</f>
+        <v>27</v>
       </c>
       <c r="T18">
-        <f>SUM(Fahrerwertung!C20:V20)</f>
-        <v>23</v>
+        <f>SUM(Fahrerwertung!C20:X20)</f>
+        <v>39</v>
       </c>
       <c r="U18">
         <f>SUM(Fahrerwertung!C20:W20)</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="V18">
         <f>SUM(Fahrerwertung!C20:X20)</f>
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -14763,7 +14839,7 @@
       </c>
       <c r="E19">
         <f>SUM(Fahrerwertung!C21:X21)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F19">
         <f>SUM(Fahrerwertung!C21:I21)</f>
@@ -14818,23 +14894,23 @@
         <v>19</v>
       </c>
       <c r="S19">
-        <f>SUM(Fahrerwertung!C21:U21)</f>
-        <v>19</v>
+        <f>SUM(Fahrerwertung!C21:V21)</f>
+        <v>24</v>
       </c>
       <c r="T19">
-        <f>SUM(Fahrerwertung!C21:V21)</f>
-        <v>19</v>
+        <f>SUM(Fahrerwertung!C21:X21)</f>
+        <v>24</v>
       </c>
       <c r="U19">
         <f>SUM(Fahrerwertung!C21:W21)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="V19">
         <f>SUM(Fahrerwertung!C21:X21)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -14852,7 +14928,7 @@
       </c>
       <c r="E20">
         <f>SUM(Fahrerwertung!C22:X22)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F20">
         <f>SUM(Fahrerwertung!C22:I22)</f>
@@ -14907,23 +14983,23 @@
         <v>19</v>
       </c>
       <c r="S20">
-        <f>SUM(Fahrerwertung!C22:U22)</f>
-        <v>19</v>
+        <f>SUM(Fahrerwertung!C22:V22)</f>
+        <v>20</v>
       </c>
       <c r="T20">
-        <f>SUM(Fahrerwertung!C22:V22)</f>
-        <v>19</v>
+        <f>SUM(Fahrerwertung!C22:X22)</f>
+        <v>24</v>
       </c>
       <c r="U20">
         <f>SUM(Fahrerwertung!C22:W22)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="V20">
         <f>SUM(Fahrerwertung!C22:X22)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -14996,11 +15072,11 @@
         <v>14</v>
       </c>
       <c r="S21">
-        <f>SUM(Fahrerwertung!C23:U23)</f>
+        <f>SUM(Fahrerwertung!C23:V23)</f>
         <v>14</v>
       </c>
       <c r="T21">
-        <f>SUM(Fahrerwertung!C23:V23)</f>
+        <f>SUM(Fahrerwertung!C23:X23)</f>
         <v>14</v>
       </c>
       <c r="U21">
